--- a/Data/2022-08-08_Behavior_Assay_fchange.xlsx
+++ b/Data/2022-08-08_Behavior_Assay_fchange.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,22 +434,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Moving [s]|Accomodation</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Moving [s]|Accomodation</t>
+          <t>Velocity [mm/s]|Light</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Velocity [mm/s]|Light</t>
+          <t>Velocity [mm/s]|Dark</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Velocity [mm/s]|Dark</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Velocity|Ratio Light/Dark</t>
         </is>
@@ -479,393 +458,343 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2163661581137311</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1019417475728156</v>
+        <v>-0.5882733334676362</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8883523036322246</v>
+        <v>-0.05325050618611279</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04021382611210863</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.2915454656748175</v>
+        <v>0.0960697894743031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.1019417475728156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5312066574202495</v>
+        <v>0.8883523036322246</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3354090533652975</v>
+        <v>0.04021382611210863</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06113118270180581</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.005583402957726765</v>
+        <v>-0.2915454656748175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5312066574202495</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1067961165048543</v>
+        <v>0.3354090533652975</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.458792481718004</v>
+        <v>0.06113118270180581</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2839581298128612</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2157469639087498</v>
+        <v>-0.005583402957726765</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1067961165048543</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03051317614424407</v>
+        <v>-0.458792481718004</v>
       </c>
       <c r="D5" t="n">
-        <v>1.177414331473237</v>
+        <v>-0.2839581298128612</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04367117276909726</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.2700644940764801</v>
+        <v>0.2157469639087498</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.03051317614424407</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1650485436893205</v>
+        <v>1.177414331473237</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3055258969761679</v>
+        <v>-0.04367117276909726</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06226771378518053</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.02163663026332149</v>
+        <v>-0.2700644940764801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.1650485436893205</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0762829403606101</v>
+        <v>0.3055258969761679</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0006567416748927113</v>
+        <v>-0.06226771378518053</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1855233500515737</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.05383496844456326</v>
+        <v>-0.02163663026332149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.0762829403606101</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9791955617198334</v>
+        <v>-0.0006567416748927113</v>
       </c>
       <c r="D8" t="n">
-        <v>-1</v>
+        <v>-0.1855233500515737</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4189297233576921</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.6002671475912116</v>
+        <v>0.05383496844456326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Amiodarone_1F03</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.9791955617198334</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1067961165048543</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5153598178851306</v>
+        <v>-0.4189297233576921</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1661763983561914</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3550638388123123</v>
+        <v>0.6002671475912116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Amodiaquine_1D03</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
+          <t>Amiodarone_1F03</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1067961165048543</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.03814147018030518</v>
+        <v>-0.5153598178851306</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003706964282116794</v>
+        <v>-0.1661763983561914</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.07382130948027919</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.08858335972710234</v>
+        <v>0.3550638388123123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Amuvatinib_1E04</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
+          <t>Amodiaquine_1D03</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.03814147018030518</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7260748959778086</v>
+        <v>0.003706964282116794</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.8672636435061142</v>
+        <v>-0.07382130948027919</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.001987906108615802</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.2564603495245864</v>
+        <v>0.08858335972710234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
+          <t>Amuvatinib_1E04</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7260748959778086</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6643550624133149</v>
+        <v>-0.8672636435061142</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4288563427949799</v>
+        <v>-0.001987906108615802</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1953741956961901</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.0929778334691635</v>
+        <v>0.2564603495245864</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6643550624133149</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9667128987517337</v>
+        <v>0.4288563427949799</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2778919800962953</v>
+        <v>0.1953741956961901</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3122881795309798</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.2806038258249763</v>
+        <v>-0.0929778334691635</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>0.5</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.9667128987517337</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4556171983356451</v>
+        <v>-0.2778919800962953</v>
       </c>
       <c r="D14" t="n">
-        <v>-1</v>
+        <v>-0.3122881795309798</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1960236420295473</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.6614427353387263</v>
+        <v>0.2806038258249763</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4556171983356451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7226074895977809</v>
+        <v>-1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04725115332702099</v>
+        <v>-0.1960236420295473</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1893122417905073</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.06541589268211959</v>
+        <v>0.6614427353387263</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7226074895977809</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3307905686546462</v>
+        <v>0.04725115332702099</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2101706319627712</v>
+        <v>0.1893122417905073</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02626028062630642</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.1850729568804193</v>
+        <v>0.06541589268211959</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3307905686546462</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2649098474341194</v>
+        <v>-0.2101706319627712</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3369874493845565</v>
+        <v>0.02626028062630642</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.02677192427128305</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.1412652294681047</v>
+        <v>0.1850729568804193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2649098474341194</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3369874493845565</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.02677192427128305</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.1412652294681047</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B19" t="n">
         <v>-1</v>
       </c>
-      <c r="D18" t="n">
+      <c r="C19" t="n">
         <v>-0.2983097967324079</v>
       </c>
-      <c r="E18" t="n">
+      <c r="D19" t="n">
         <v>-0.7622922317486479</v>
       </c>
-      <c r="F18" t="n">
+      <c r="E19" t="n">
         <v>-0.9802907768899706</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1317614424410541</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.3447332085377635</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.04766930507126504</v>
       </c>
     </row>
     <row r="20">
@@ -874,19 +803,16 @@
           <t>Atazanavir_1B10</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
+      <c r="B20" t="n">
+        <v>0.002773925104022379</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002773925104022379</v>
+        <v>-0.1115070811257278</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1115070811257278</v>
+        <v>-0.031197982896094</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.031197982896094</v>
-      </c>
-      <c r="F20" t="n">
         <v>0.3275731867215356</v>
       </c>
     </row>
@@ -896,19 +822,16 @@
           <t>Baricitinib_2C09</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
+      <c r="B21" t="n">
+        <v>0.3051317614424411</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3051317614424411</v>
+        <v>-0.2844356252140454</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2844356252140454</v>
+        <v>0.02508281805133367</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02508281805133367</v>
-      </c>
-      <c r="F21" t="n">
         <v>0.1441064853059497</v>
       </c>
     </row>
@@ -918,19 +841,16 @@
           <t>Bemcentinib_1A04</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
+      <c r="B22" t="n">
+        <v>-0.2233009708737863</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2233009708737863</v>
+        <v>-0.6709675859707084</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.6709675859707084</v>
+        <v>0.02959892595766048</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02959892595766048</v>
-      </c>
-      <c r="F22" t="n">
         <v>0.4167255282586009</v>
       </c>
     </row>
@@ -940,19 +860,16 @@
           <t>Benztropine_1G02</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
+      <c r="B23" t="n">
+        <v>-0.393897364771151</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.393897364771151</v>
+        <v>0.08760450452265361</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08760450452265361</v>
+        <v>-0.1804464807103525</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.1804464807103525</v>
-      </c>
-      <c r="F23" t="n">
         <v>-0.1014596810427114</v>
       </c>
     </row>
@@ -962,19 +879,16 @@
           <t>Berbamine_2A09</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
+      <c r="B24" t="n">
+        <v>-0.2357836338418863</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2357836338418863</v>
+        <v>0.7988053748060999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7988053748060999</v>
+        <v>-0.2308181386540636</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.2308181386540636</v>
-      </c>
-      <c r="F24" t="n">
         <v>-0.338124549989579</v>
       </c>
     </row>
@@ -984,19 +898,16 @@
           <t>Boceprevir_2G09</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
+      <c r="B25" t="n">
+        <v>-0.1629680998613037</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1629680998613037</v>
+        <v>0.4567054130824552</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4567054130824552</v>
+        <v>-0.1171220522504133</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1171220522504133</v>
-      </c>
-      <c r="F25" t="n">
         <v>-0.02871455894917948</v>
       </c>
     </row>
@@ -1006,19 +917,16 @@
           <t>Bortezomib_2G06</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
+      <c r="B26" t="n">
+        <v>0.1553398058252429</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1553398058252429</v>
+        <v>0.5183645923568161</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5183645923568161</v>
+        <v>-0.1308538854900591</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.1308538854900591</v>
-      </c>
-      <c r="F26" t="n">
         <v>-0.1089237924285655</v>
       </c>
     </row>
@@ -1028,19 +936,16 @@
           <t>Brequinar_2H03</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
+      <c r="B27" t="n">
+        <v>-0.01213592233009714</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.01213592233009714</v>
+        <v>-0.585383468643607</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.585383468643607</v>
+        <v>-0.1799771329400271</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.1799771329400271</v>
-      </c>
-      <c r="F27" t="n">
         <v>0.2005447718318555</v>
       </c>
     </row>
@@ -1050,19 +955,16 @@
           <t>Cabozantinib_2G04</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
+      <c r="B28" t="n">
+        <v>-1</v>
       </c>
       <c r="C28" t="n">
-        <v>-1</v>
+        <v>-0.9952517173996253</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.9952517173996253</v>
+        <v>-0.9493219016225243</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.9493219016225243</v>
-      </c>
-      <c r="F28" t="n">
         <v>-0.3647202988331421</v>
       </c>
     </row>
@@ -1072,19 +974,16 @@
           <t>Camostat_1E10</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
+      <c r="B29" t="n">
+        <v>0.4639389736477115</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4639389736477115</v>
+        <v>-1</v>
       </c>
       <c r="D29" t="n">
-        <v>-1</v>
+        <v>0.02474035790496253</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02474035790496253</v>
-      </c>
-      <c r="F29" t="n">
         <v>0.4057372884837265</v>
       </c>
     </row>
@@ -1094,19 +993,16 @@
           <t>Captopril_1F07</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
+      <c r="B30" t="n">
+        <v>0.7475728155339805</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7475728155339805</v>
+        <v>-0.2658719958097464</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2658719958097464</v>
+        <v>-0.1270404348561668</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.1270404348561668</v>
-      </c>
-      <c r="F30" t="n">
         <v>0.1635781991202515</v>
       </c>
     </row>
@@ -1116,19 +1012,16 @@
           <t>Celecoxib_2G03</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
+      <c r="B31" t="n">
+        <v>-0.1699029126213592</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1699029126213592</v>
+        <v>3.079070891839078</v>
       </c>
       <c r="D31" t="n">
-        <v>3.079070891839078</v>
+        <v>-0.1769386518803927</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.1769386518803927</v>
-      </c>
-      <c r="F31" t="n">
         <v>-0.3235659054775396</v>
       </c>
     </row>
@@ -1138,19 +1031,16 @@
           <t>Chlormidazole_2C05</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
+      <c r="B32" t="n">
+        <v>0.01595006934812751</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01595006934812751</v>
+        <v>-0.6434696508793488</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.6434696508793488</v>
+        <v>-0.06446573488400011</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.06446573488400011</v>
-      </c>
-      <c r="F32" t="n">
         <v>0.1646313500771158</v>
       </c>
     </row>
@@ -1160,19 +1050,16 @@
           <t>Chlorothiazide_2H08</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
+      <c r="B33" t="n">
+        <v>0.07281553398058245</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07281553398058245</v>
+        <v>0.266959447208848</v>
       </c>
       <c r="D33" t="n">
-        <v>0.266959447208848</v>
+        <v>0.08292583759475634</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08292583759475634</v>
-      </c>
-      <c r="F33" t="n">
         <v>-0.004990172810580464</v>
       </c>
     </row>
@@ -1182,19 +1069,16 @@
           <t>Chlorpromazine_1B02</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
+      <c r="B34" t="n">
+        <v>-1</v>
       </c>
       <c r="C34" t="n">
-        <v>-1</v>
+        <v>0.1720356977376658</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1720356977376658</v>
+        <v>0.05517292190817152</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05517292190817152</v>
-      </c>
-      <c r="F34" t="n">
         <v>-0.02194360348021865</v>
       </c>
     </row>
@@ -1204,19 +1088,16 @@
           <t>Ciclesonide_1A08</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
+      <c r="B35" t="n">
+        <v>0.7156726768377255</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7156726768377255</v>
+        <v>-0.5495775499103527</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.5495775499103527</v>
+        <v>0.2031375352693019</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2031375352693019</v>
-      </c>
-      <c r="F35" t="n">
         <v>0.1763993266401089</v>
       </c>
     </row>
@@ -1226,19 +1107,16 @@
           <t>Clemastine_2D07</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>1</v>
+      <c r="B36" t="n">
+        <v>-0.06241331484049932</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.06241331484049932</v>
+        <v>-0.2535649388585588</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2535649388585588</v>
+        <v>-0.1407224681143681</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.1407224681143681</v>
-      </c>
-      <c r="F36" t="n">
         <v>0.09734199664308596</v>
       </c>
     </row>
@@ -1248,19 +1126,16 @@
           <t>Clomipramine_1E08</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>1</v>
+      <c r="B37" t="n">
+        <v>-0.4750346740638002</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.4750346740638002</v>
+        <v>-1</v>
       </c>
       <c r="D37" t="n">
-        <v>-1</v>
+        <v>-0.3830527252187105</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.3830527252187105</v>
-      </c>
-      <c r="F37" t="n">
         <v>0.5371744751236963</v>
       </c>
     </row>
@@ -1270,19 +1145,16 @@
           <t>Cloperastine_2D06</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
+      <c r="B38" t="n">
+        <v>-0.6532593619972261</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.6532593619972261</v>
+        <v>-0.397081327182256</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.397081327182256</v>
+        <v>-0.1480915009850846</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.1480915009850846</v>
-      </c>
-      <c r="F38" t="n">
         <v>0.1613262272916128</v>
       </c>
     </row>
@@ -1292,8 +1164,8 @@
           <t>Control</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
+      <c r="B39" t="n">
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1304,9 +1176,6 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1314,19 +1183,16 @@
           <t>Cycloheximide_2D11</t>
         </is>
       </c>
-      <c r="B40" s="1" t="n">
-        <v>1</v>
+      <c r="B40" t="n">
+        <v>-0.3120665742024965</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.3120665742024965</v>
+        <v>-0.01757891980096297</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.01757891980096297</v>
+        <v>-0.0943921127744457</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.0943921127744457</v>
-      </c>
-      <c r="F40" t="n">
         <v>0.01003500326802596</v>
       </c>
     </row>
@@ -1336,19 +1202,16 @@
           <t>Cyclosporine_1F04</t>
         </is>
       </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
+      <c r="B41" t="n">
+        <v>-0.02357836338418862</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.02357836338418862</v>
+        <v>-0.2346533975301676</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2346533975301676</v>
+        <v>-0.01533566551876573</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.01533566551876573</v>
-      </c>
-      <c r="F41" t="n">
         <v>0.1075827382518161</v>
       </c>
     </row>
@@ -1358,19 +1221,16 @@
           <t>Dabrafenib_2B08</t>
         </is>
       </c>
-      <c r="B42" s="1" t="n">
-        <v>1</v>
+      <c r="B42" t="n">
+        <v>-0.7884882108183079</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.7884882108183079</v>
+        <v>0.4942801023388869</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4942801023388869</v>
+        <v>-0.07244464697952879</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.07244464697952879</v>
-      </c>
-      <c r="F42" t="n">
         <v>-0.2716596183892275</v>
       </c>
     </row>
@@ -1380,19 +1240,16 @@
           <t>Daclatasvir_1C04</t>
         </is>
       </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
+      <c r="B43" t="n">
+        <v>0.0152565880721221</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0152565880721221</v>
+        <v>-0.1415896774713432</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1415896774713432</v>
+        <v>0.1202594510814101</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1202594510814101</v>
-      </c>
-      <c r="F43" t="n">
         <v>0.1252887991957702</v>
       </c>
     </row>
@@ -1402,19 +1259,16 @@
           <t>Danusertib_2F04</t>
         </is>
       </c>
-      <c r="B44" s="1" t="n">
-        <v>1</v>
+      <c r="B44" t="n">
+        <v>0.06518723994452147</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06518723994452147</v>
+        <v>0.3360990350329378</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3360990350329378</v>
+        <v>-0.01771651394672348</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.01771651394672348</v>
-      </c>
-      <c r="F44" t="n">
         <v>-0.1827437925291101</v>
       </c>
     </row>
@@ -1424,19 +1278,16 @@
           <t>Dapivirine_2B09</t>
         </is>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>1</v>
+      <c r="B45" t="n">
+        <v>-0.9771151178918169</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.9771151178918169</v>
+        <v>0.001592497834364164</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001592497834364164</v>
+        <v>-0.1707034213269444</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.1707034213269444</v>
-      </c>
-      <c r="F45" t="n">
         <v>-0.1015836290072316</v>
       </c>
     </row>
@@ -1446,19 +1297,16 @@
           <t>Darifenacin_2F08</t>
         </is>
       </c>
-      <c r="B46" s="1" t="n">
-        <v>1</v>
+      <c r="B46" t="n">
+        <v>0.3016643550624133</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3016643550624133</v>
+        <v>-0.01185922359435116</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.01185922359435116</v>
+        <v>-0.05191886832612034</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.05191886832612034</v>
-      </c>
-      <c r="F46" t="n">
         <v>0.0446189357374271</v>
       </c>
     </row>
@@ -1468,19 +1316,16 @@
           <t>Darunavir_2H02</t>
         </is>
       </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
+      <c r="B47" t="n">
+        <v>0.136615811373093</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136615811373093</v>
+        <v>-0.3284955377827919</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3284955377827919</v>
+        <v>-0.06010925979490589</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.06010925979490589</v>
-      </c>
-      <c r="F47" t="n">
         <v>0.1850747015447177</v>
       </c>
     </row>
@@ -1490,19 +1335,16 @@
           <t>Delanzomib_2H04</t>
         </is>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>1</v>
+      <c r="B48" t="n">
+        <v>0.7392510402219139</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7392510402219139</v>
+        <v>0.4314309313241605</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4314309313241605</v>
+        <v>0.3272950287339071</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3272950287339071</v>
-      </c>
-      <c r="F48" t="n">
         <v>-0.007087294848848852</v>
       </c>
     </row>
@@ -1512,19 +1354,16 @@
           <t>Delavirdine_2H05</t>
         </is>
       </c>
-      <c r="B49" s="1" t="n">
-        <v>1</v>
+      <c r="B49" t="n">
+        <v>-0.3335644937586685</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.3335644937586685</v>
+        <v>-0.07068756421362241</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.07068756421362241</v>
+        <v>-0.0981277935743015</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.0981277935743015</v>
-      </c>
-      <c r="F49" t="n">
         <v>-0.04973513485483904</v>
       </c>
     </row>
@@ -1534,19 +1373,16 @@
           <t>Desmethyl ferroquine_2E11</t>
         </is>
       </c>
-      <c r="B50" s="1" t="n">
-        <v>1</v>
+      <c r="B50" t="n">
+        <v>0.2898751733703189</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2898751733703189</v>
+        <v>0.2238415358891194</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2238415358891194</v>
+        <v>0.1232897458427247</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1232897458427247</v>
-      </c>
-      <c r="F50" t="n">
         <v>-0.02971431053117082</v>
       </c>
     </row>
@@ -1556,19 +1392,16 @@
           <t>Digitoxin_2C04</t>
         </is>
       </c>
-      <c r="B51" s="1" t="n">
-        <v>1</v>
+      <c r="B51" t="n">
+        <v>-0.6199722607489597</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.6199722607489597</v>
+        <v>-0.6965126211245191</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.6965126211245191</v>
+        <v>-0.372344228386808</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.372344228386808</v>
-      </c>
-      <c r="F51" t="n">
         <v>0.09998828829951309</v>
       </c>
     </row>
@@ -1578,19 +1411,16 @@
           <t>Digoxin_1D02</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
-        <v>1</v>
+      <c r="B52" t="n">
+        <v>-0.03814147018030518</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.03814147018030518</v>
+        <v>-0.02961361026612148</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02961361026612148</v>
+        <v>-0.01725125932555812</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.01725125932555812</v>
-      </c>
-      <c r="F52" t="n">
         <v>-0.05726378807378781</v>
       </c>
     </row>
@@ -1600,19 +1430,16 @@
           <t>Doravirine_2D10</t>
         </is>
       </c>
-      <c r="B53" s="1" t="n">
-        <v>1</v>
+      <c r="B53" t="n">
+        <v>-0.2558945908460472</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.2558945908460472</v>
+        <v>-0.3338463707971555</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.3338463707971555</v>
+        <v>-0.03494048561121625</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.03494048561121625</v>
-      </c>
-      <c r="F53" t="n">
         <v>0.0389104364917102</v>
       </c>
     </row>
@@ -1622,19 +1449,16 @@
           <t>Doxorubicin_2A05</t>
         </is>
       </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
+      <c r="B54" t="n">
+        <v>0.298890429958391</v>
       </c>
       <c r="C54" t="n">
-        <v>0.298890429958391</v>
+        <v>0.04470879751808058</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04470879751808058</v>
+        <v>0.06763383233369534</v>
       </c>
       <c r="E54" t="n">
-        <v>0.06763383233369534</v>
-      </c>
-      <c r="F54" t="n">
         <v>-0.03187405926792299</v>
       </c>
     </row>
@@ -1644,19 +1468,16 @@
           <t>Doxycycline_1E05</t>
         </is>
       </c>
-      <c r="B55" s="1" t="n">
-        <v>1</v>
+      <c r="B55" t="n">
+        <v>-0.08391123439667135</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.08391123439667135</v>
+        <v>-0.6376458026954613</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.6376458026954613</v>
+        <v>-0.007273526056987517</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.007273526056987517</v>
-      </c>
-      <c r="F55" t="n">
         <v>0.09076621813627457</v>
       </c>
     </row>
@@ -1666,19 +1487,16 @@
           <t>Drotaverine_1B07</t>
         </is>
       </c>
-      <c r="B56" s="1" t="n">
-        <v>1</v>
+      <c r="B56" t="n">
+        <v>0.1109570041608879</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1109570041608879</v>
+        <v>0.1430302786115756</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1430302786115756</v>
+        <v>0.05690841715193218</v>
       </c>
       <c r="E56" t="n">
-        <v>0.05690841715193218</v>
-      </c>
-      <c r="F56" t="n">
         <v>0.07053017824922798</v>
       </c>
     </row>
@@ -1688,19 +1506,16 @@
           <t>Dutacatib_2C07</t>
         </is>
       </c>
-      <c r="B57" s="1" t="n">
-        <v>1</v>
+      <c r="B57" t="n">
+        <v>0.4070735090152568</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4070735090152568</v>
+        <v>-0.2830073127984044</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.2830073127984044</v>
+        <v>0.173889255756332</v>
       </c>
       <c r="E57" t="n">
-        <v>0.173889255756332</v>
-      </c>
-      <c r="F57" t="n">
         <v>0.1085088059738079</v>
       </c>
     </row>
@@ -1710,19 +1525,16 @@
           <t>E 52862_2D09</t>
         </is>
       </c>
-      <c r="B58" s="1" t="n">
-        <v>1</v>
+      <c r="B58" t="n">
+        <v>0.03398058252427173</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03398058252427173</v>
+        <v>-0.4221255464453353</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.4221255464453353</v>
+        <v>-0.04498098050023749</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.04498098050023749</v>
-      </c>
-      <c r="F58" t="n">
         <v>0.2169052547051243</v>
       </c>
     </row>
@@ -1732,19 +1544,16 @@
           <t>Emetine_1E06</t>
         </is>
       </c>
-      <c r="B59" s="1" t="n">
-        <v>1</v>
+      <c r="B59" t="n">
+        <v>0.6636615811373092</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6636615811373092</v>
+        <v>-1</v>
       </c>
       <c r="D59" t="n">
-        <v>-1</v>
+        <v>0.07146501994728023</v>
       </c>
       <c r="E59" t="n">
-        <v>0.07146501994728023</v>
-      </c>
-      <c r="F59" t="n">
         <v>0.5106244587705056</v>
       </c>
     </row>
@@ -1754,19 +1563,16 @@
           <t>Entacapone_2B05</t>
         </is>
       </c>
-      <c r="B60" s="1" t="n">
-        <v>1</v>
+      <c r="B60" t="n">
+        <v>-0.6026352288488211</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.6026352288488211</v>
+        <v>-0.1340232478494733</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1340232478494733</v>
+        <v>-0.03783297768415075</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.03783297768415075</v>
-      </c>
-      <c r="F60" t="n">
         <v>0.1646526534257346</v>
       </c>
     </row>
@@ -1776,19 +1582,16 @@
           <t>Eszopiclone_2C10</t>
         </is>
       </c>
-      <c r="B61" s="1" t="n">
-        <v>1</v>
+      <c r="B61" t="n">
+        <v>0.2122052704576977</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2122052704576977</v>
+        <v>-0.1608775358085376</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1608775358085376</v>
+        <v>0.1294417490299235</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1294417490299235</v>
-      </c>
-      <c r="F61" t="n">
         <v>0.0904348398509958</v>
       </c>
     </row>
@@ -1798,19 +1601,16 @@
           <t>Ethaverine_1A10</t>
         </is>
       </c>
-      <c r="B62" s="1" t="n">
-        <v>1</v>
+      <c r="B62" t="n">
+        <v>-0.3509015256588072</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.3509015256588072</v>
+        <v>0.002030661375128445</v>
       </c>
       <c r="D62" t="n">
-        <v>0.002030661375128445</v>
+        <v>0.3712977465849492</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3712977465849492</v>
-      </c>
-      <c r="F62" t="n">
         <v>0.04877927309812881</v>
       </c>
     </row>
@@ -1820,19 +1620,16 @@
           <t>Favipiravir_1D10</t>
         </is>
       </c>
-      <c r="B63" s="1" t="n">
-        <v>1</v>
+      <c r="B63" t="n">
+        <v>-0.02704576976421641</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.02704576976421641</v>
+        <v>-0.09884747879691365</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.09884747879691365</v>
+        <v>-0.08987736925117198</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.08987736925117198</v>
-      </c>
-      <c r="F63" t="n">
         <v>-0.02095186927197731</v>
       </c>
     </row>
@@ -1842,19 +1639,16 @@
           <t>Ferroquine_1G09</t>
         </is>
       </c>
-      <c r="B64" s="1" t="n">
-        <v>1</v>
+      <c r="B64" t="n">
+        <v>0.1081830790568654</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1081830790568654</v>
+        <v>0.4190515522069341</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4190515522069341</v>
+        <v>0.003191291961600685</v>
       </c>
       <c r="E64" t="n">
-        <v>0.003191291961600685</v>
-      </c>
-      <c r="F64" t="n">
         <v>-0.02010798396651032</v>
       </c>
     </row>
@@ -1864,19 +1658,16 @@
           <t>Fluconazole_2A11</t>
         </is>
       </c>
-      <c r="B65" s="1" t="n">
-        <v>1</v>
+      <c r="B65" t="n">
+        <v>-0.7784327323162274</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.7784327323162274</v>
+        <v>-0.1568361570539293</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.1568361570539293</v>
+        <v>-0.1730542533277304</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.1730542533277304</v>
-      </c>
-      <c r="F65" t="n">
         <v>-0.009442397916116308</v>
       </c>
     </row>
@@ -1886,19 +1677,16 @@
           <t>Fluphenazine_1H06</t>
         </is>
       </c>
-      <c r="B66" s="1" t="n">
-        <v>1</v>
+      <c r="B66" t="n">
+        <v>0.09708737864077673</v>
       </c>
       <c r="C66" t="n">
-        <v>0.09708737864077673</v>
+        <v>0.9782791756481799</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9782791756481799</v>
+        <v>0.3337362811283991</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3337362811283991</v>
-      </c>
-      <c r="F66" t="n">
         <v>-0.04695166164445973</v>
       </c>
     </row>
@@ -1908,19 +1696,16 @@
           <t>Fluspirilene_2A02</t>
         </is>
       </c>
-      <c r="B67" s="1" t="n">
-        <v>1</v>
+      <c r="B67" t="n">
+        <v>0.225381414701803</v>
       </c>
       <c r="C67" t="n">
-        <v>0.225381414701803</v>
+        <v>0.574473700114829</v>
       </c>
       <c r="D67" t="n">
-        <v>0.574473700114829</v>
+        <v>-0.03196749493813878</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.03196749493813878</v>
-      </c>
-      <c r="F67" t="n">
         <v>-0.05406683466756263</v>
       </c>
     </row>
@@ -1930,19 +1715,16 @@
           <t>GSK 983_1C07</t>
         </is>
       </c>
-      <c r="B68" s="1" t="n">
-        <v>1</v>
+      <c r="B68" t="n">
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>-0.3138614798847681</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.3138614798847681</v>
+        <v>-0.05413735517073881</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.05413735517073881</v>
-      </c>
-      <c r="F68" t="n">
         <v>0.2643691870889809</v>
       </c>
     </row>
@@ -1952,19 +1734,16 @@
           <t>GSK-369796_1C03</t>
         </is>
       </c>
-      <c r="B69" s="1" t="n">
-        <v>1</v>
+      <c r="B69" t="n">
+        <v>0.01248266296809984</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01248266296809984</v>
+        <v>-0.170466568625476</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.170466568625476</v>
+        <v>-0.07892000895035271</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.07892000895035271</v>
-      </c>
-      <c r="F69" t="n">
         <v>0.1226224743025026</v>
       </c>
     </row>
@@ -1974,19 +1753,16 @@
           <t>Halofantrine_1D05</t>
         </is>
       </c>
-      <c r="B70" s="1" t="n">
-        <v>1</v>
+      <c r="B70" t="n">
+        <v>-0.03814147018030518</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.03814147018030518</v>
+        <v>-0.3224716452789138</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.3224716452789138</v>
+        <v>-0.2292463693766953</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2292463693766953</v>
-      </c>
-      <c r="F70" t="n">
         <v>0.1482034342611945</v>
       </c>
     </row>
@@ -1996,19 +1772,16 @@
           <t>Haloperidol_1H07</t>
         </is>
       </c>
-      <c r="B71" s="1" t="n">
-        <v>1</v>
+      <c r="B71" t="n">
+        <v>-0.08876560332871009</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.08876560332871009</v>
+        <v>-0.5236789621064082</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.5236789621064082</v>
+        <v>0.008635180344151899</v>
       </c>
       <c r="E71" t="n">
-        <v>0.008635180344151899</v>
-      </c>
-      <c r="F71" t="n">
         <v>0.3253923929153353</v>
       </c>
     </row>
@@ -2018,19 +1791,16 @@
           <t>Hanfangchin B_2B04</t>
         </is>
       </c>
-      <c r="B72" s="1" t="n">
-        <v>1</v>
+      <c r="B72" t="n">
+        <v>-0.9244105409153953</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.9244105409153953</v>
+        <v>-0.3025586736235621</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.3025586736235621</v>
+        <v>0.05775979217717327</v>
       </c>
       <c r="E72" t="n">
-        <v>0.05775979217717327</v>
-      </c>
-      <c r="F72" t="n">
         <v>0.4202292592203075</v>
       </c>
     </row>
@@ -2040,19 +1810,16 @@
           <t>Hydroxychloroquine_1F11</t>
         </is>
       </c>
-      <c r="B73" s="1" t="n">
-        <v>1</v>
+      <c r="B73" t="n">
+        <v>0.0284327323162276</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0284327323162276</v>
+        <v>0.03673583271218209</v>
       </c>
       <c r="D73" t="n">
-        <v>0.03673583271218209</v>
+        <v>-0.1776549529833601</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1776549529833601</v>
-      </c>
-      <c r="F73" t="n">
         <v>0.03203070507181045</v>
       </c>
     </row>
@@ -2062,19 +1829,16 @@
           <t>Hydroxyprogesterone_1E02</t>
         </is>
       </c>
-      <c r="B74" s="1" t="n">
-        <v>1</v>
+      <c r="B74" t="n">
+        <v>0.2586685159500692</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2586685159500692</v>
+        <v>-0.8541086645581095</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.8541086645581095</v>
+        <v>0.0704963079794578</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0704963079794578</v>
-      </c>
-      <c r="F74" t="n">
         <v>0.183643036875644</v>
       </c>
     </row>
@@ -2084,19 +1848,16 @@
           <t>Idelalisib_2F07</t>
         </is>
       </c>
-      <c r="B75" s="1" t="n">
-        <v>1</v>
+      <c r="B75" t="n">
+        <v>0.08252427184466028</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08252427184466028</v>
+        <v>-0.1220058824714439</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.1220058824714439</v>
+        <v>-0.104403955619348</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.104403955619348</v>
-      </c>
-      <c r="F75" t="n">
         <v>0.1021780919590051</v>
       </c>
     </row>
@@ -2106,19 +1867,16 @@
           <t>Imatinib_1H05</t>
         </is>
       </c>
-      <c r="B76" s="1" t="n">
-        <v>1</v>
+      <c r="B76" t="n">
+        <v>-0.06518723994452147</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.06518723994452147</v>
+        <v>-0.2298930276597031</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.2298930276597031</v>
+        <v>0.05569820938368084</v>
       </c>
       <c r="E76" t="n">
-        <v>0.05569820938368084</v>
-      </c>
-      <c r="F76" t="n">
         <v>0.2311834246567411</v>
       </c>
     </row>
@@ -2128,19 +1886,16 @@
           <t>Indinavir_2H06</t>
         </is>
       </c>
-      <c r="B77" s="1" t="n">
-        <v>1</v>
+      <c r="B77" t="n">
+        <v>0.3252427184466019</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3252427184466019</v>
+        <v>-0.1339994762182963</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.1339994762182963</v>
+        <v>0.005864118362958639</v>
       </c>
       <c r="E77" t="n">
-        <v>0.005864118362958639</v>
-      </c>
-      <c r="F77" t="n">
         <v>0.03979456869174545</v>
       </c>
     </row>
@@ -2150,19 +1905,16 @@
           <t>Indomethacin_1F06</t>
         </is>
       </c>
-      <c r="B78" s="1" t="n">
-        <v>1</v>
+      <c r="B78" t="n">
+        <v>0.4341192787794731</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4341192787794731</v>
+        <v>0.3838228006204798</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3838228006204798</v>
+        <v>0.1492580484956313</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1492580484956313</v>
-      </c>
-      <c r="F78" t="n">
         <v>-0.1343160389164964</v>
       </c>
     </row>
@@ -2172,19 +1924,16 @@
           <t>Itraconazole_1C06</t>
         </is>
       </c>
-      <c r="B79" s="1" t="n">
-        <v>1</v>
+      <c r="B79" t="n">
+        <v>0.0152565880721221</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0152565880721221</v>
+        <v>-0.4011855597413325</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4011855597413325</v>
+        <v>-0.1359858759066324</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1359858759066324</v>
-      </c>
-      <c r="F79" t="n">
         <v>0.3235895690555088</v>
       </c>
     </row>
@@ -2194,2021 +1943,1597 @@
           <t>Ivermectin_1F05</t>
         </is>
       </c>
-      <c r="B80" s="1" t="n">
-        <v>5</v>
+      <c r="B80" t="n">
+        <v>-0.04160887656033285</v>
       </c>
       <c r="C80" t="n">
+        <v>2.439110376921372</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.8546768322300022</v>
+      </c>
+      <c r="E80" t="n">
         <v>-1</v>
       </c>
-      <c r="D80" t="n">
-        <v>1.635173955962046</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-0.8264646652076864</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-0.9881294922957468</v>
-      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="n">
-        <v>1</v>
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.5124826629680999</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.04160887656033285</v>
+        <v>-0.4389294707790245</v>
       </c>
       <c r="D81" t="n">
-        <v>4.484297024517013</v>
+        <v>-0.1417703142992802</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8546768322300022</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-1</v>
+        <v>0.2254738683612052</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="n">
-        <v>1</v>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.5533980582524269</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.5124826629680999</v>
+        <v>-0.05051834243236168</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.4389294707790245</v>
+        <v>0.05657005015472095</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1417703142992802</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.2254738683612052</v>
+        <v>0.07634512324459494</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>1</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.5533980582524269</v>
+        <v>-0.2216045851044542</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.05051834243236168</v>
+        <v>-0.01663728695158617</v>
       </c>
       <c r="E83" t="n">
-        <v>0.05657005015472095</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.07634512324459494</v>
+        <v>0.1246846076202101</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="n">
-        <v>1</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>-0.1555855275086122</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.2216045851044542</v>
+        <v>-0.05848837272762002</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.01663728695158617</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.1246846076202101</v>
+        <v>0.115473539662485</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>1</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.09500693481276</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>-0.06570760893652168</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.1555855275086122</v>
+        <v>0.07694711105532293</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.05848837272762002</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.115473539662485</v>
+        <v>0.08359528468397164</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>1</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.03536754507628292</v>
       </c>
       <c r="C86" t="n">
-        <v>0.09500693481276</v>
+        <v>-0.04259553979733676</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.06570760893652168</v>
+        <v>-0.08237189807512835</v>
       </c>
       <c r="E86" t="n">
-        <v>0.07694711105532293</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.08359528468397164</v>
+        <v>0.1317508361946084</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>1</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.1934812760055477</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.03536754507628292</v>
+        <v>-0.01793227099659542</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.04259553979733676</v>
+        <v>0.07094109685482426</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.08237189807512835</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.1317508361946084</v>
+        <v>0.1045185105411551</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="n">
-        <v>1</v>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.9590846047156727</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1934812760055477</v>
+        <v>0.1127127863172102</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01793227099659542</v>
+        <v>-0.1658939710641643</v>
       </c>
       <c r="E88" t="n">
-        <v>0.07094109685482426</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.1045185105411551</v>
+        <v>0.02314632066764015</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>1</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.4895977808599167</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.9590846047156727</v>
+        <v>0.1101915832309273</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1127127863172102</v>
+        <v>0.00362380138948769</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.1658939710641643</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.02314632066764015</v>
+        <v>0.05192212002143264</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>1</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.2829403606102635</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.4895977808599167</v>
+        <v>-0.7687070650093676</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1101915832309273</v>
+        <v>-0.179708349478533</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00362380138948769</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.05192212002143264</v>
+        <v>0.1443531696550992</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>1</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.3876560332871012</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.2829403606102635</v>
+        <v>0.07546626644372381</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.7687070650093676</v>
+        <v>-0.1064546233484143</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.179708349478533</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.1443531696550992</v>
+        <v>0.01322896693885449</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="n">
-        <v>1</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.9833564493758669</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.3876560332871012</v>
+        <v>-0.5260291303209168</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07546626644372381</v>
+        <v>-0.404835646417403</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.1064546233484143</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.01322896693885449</v>
+        <v>-0.1439794944542062</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="n">
-        <v>1</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.180998613037448</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.9833564493758669</v>
+        <v>0.01810471604988007</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.5260291303209168</v>
+        <v>-0.1985804958713769</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.4048356464174029</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-0.1439794944542062</v>
+        <v>0.004307373753087635</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="n">
-        <v>0.5</v>
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.1407766990291262</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1740638002773925</v>
+        <v>0.5638771933358852</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5450351538105119</v>
+        <v>-0.0651383757292628</v>
       </c>
       <c r="E94" t="n">
-        <v>0.003024837229101627</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.01945231818689795</v>
+        <v>-0.2424572125220813</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>1</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.4840499306518721</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.180998613037448</v>
+        <v>2.016333930981688</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01810471604988007</v>
+        <v>0.1713801553213667</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.1985804958713769</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.004307373753087635</v>
+        <v>-0.3455265625096632</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="n">
-        <v>1</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.7981969486823856</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1407766990291262</v>
+        <v>0.5999657527347446</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5638771933358852</v>
+        <v>0.1625485038175437</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.0651383757292628</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-0.2424572125220813</v>
+        <v>-0.172641648190466</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="n">
-        <v>1</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.03467406380027752</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4840499306518723</v>
+        <v>0.06251938999576946</v>
       </c>
       <c r="D97" t="n">
-        <v>2.016333930981688</v>
+        <v>-0.02135259478369075</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1713801553213668</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-0.3455265625096632</v>
+        <v>0.06125335071148118</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="n">
-        <v>0.5</v>
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.9771151178918169</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.935506241331484</v>
+        <v>-0.02079272346340574</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.9102741795765427</v>
+        <v>0.0104395769321028</v>
       </c>
       <c r="E98" t="n">
-        <v>0.007632358799997771</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.1823505894927167</v>
+        <v>0.05834072444513574</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>1</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.03467406380027739</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7981969486823856</v>
+        <v>0.2214226716895989</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5999657527347446</v>
+        <v>0.1953687381639771</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1625485038175437</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-0.172641648190466</v>
+        <v>0.1482948670476459</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>0.5</v>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.4736477115117892</v>
       </c>
       <c r="C100" t="n">
-        <v>0.05825242718446601</v>
+        <v>-0.1273293176736036</v>
       </c>
       <c r="D100" t="n">
-        <v>0.09779810229859581</v>
+        <v>0.2055866028499234</v>
       </c>
       <c r="E100" t="n">
-        <v>0.06044489802601044</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.05293764732218314</v>
+        <v>0.09435794796750346</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n"/>
-      <c r="B101" s="1" t="n">
-        <v>1</v>
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.3169209431345354</v>
       </c>
       <c r="C101" t="n">
-        <v>0.03467406380027752</v>
+        <v>-0.0427305143133424</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06251938999576946</v>
+        <v>-0.0555754149088865</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.02135259478369075</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.06125335071148118</v>
+        <v>0.008414749808441559</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="n">
-        <v>10</v>
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.4778085991678226</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4590846047156726</v>
+        <v>0.7238304558915369</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.1678960091863253</v>
+        <v>0.2728452298439691</v>
       </c>
       <c r="E102" t="n">
-        <v>0.03014467917896881</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.159827430856779</v>
+        <v>-0.07610397984096809</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n"/>
-      <c r="B103" s="1" t="n">
-        <v>25</v>
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.1192787794729543</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1386962552011097</v>
+        <v>0.1451721428715326</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1297467716916136</v>
+        <v>0.0661834931480683</v>
       </c>
       <c r="E103" t="n">
-        <v>0.06289328341510533</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.06313025588005076</v>
+        <v>0.08754021172496683</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B104" s="1" t="n">
-        <v>1</v>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.5360610263522885</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.9771151178918169</v>
+        <v>-1</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.02079272346340574</v>
+        <v>-0.1624147942783233</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0104395769321028</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.05834072444513574</v>
+        <v>0.3935477603221073</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B105" s="1" t="n">
-        <v>1</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.1844660194174757</v>
       </c>
       <c r="C105" t="n">
-        <v>0.03467406380027739</v>
+        <v>0.07306492878583369</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2214226716895989</v>
+        <v>0.07473271735986423</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1953687381639771</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.1482948670476459</v>
+        <v>-0.04692931470011096</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B106" s="1" t="n">
-        <v>1</v>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.1310679611650486</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4736477115117892</v>
+        <v>-0.7406426398597876</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.1273293176736036</v>
+        <v>-0.2483054362478376</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2055866028499234</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.09435794796750346</v>
+        <v>0.2382657947652871</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B107" s="1" t="n">
-        <v>1</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.1178918169209431</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.3169209431345354</v>
+        <v>-0.1695843993634037</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.0427305143133424</v>
+        <v>-0.02910774805848299</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.0555754149088865</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.008414749808441559</v>
+        <v>0.05696901668821411</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B108" s="1" t="n">
-        <v>1</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.1914008321775313</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4778085991678226</v>
+        <v>-0.4296198553556679</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7238304558915369</v>
+        <v>0.117510219229069</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2728452298439691</v>
-      </c>
-      <c r="F108" t="n">
-        <v>-0.07610397984096809</v>
+        <v>0.4066635290464813</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B109" s="1" t="n">
-        <v>1</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5388349514563106</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1192787794729543</v>
+        <v>-0.2636997119200629</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1451721428715326</v>
+        <v>-0.04805493551925683</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0661834931480683</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.08754021172496683</v>
+        <v>0.1875213760667349</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="n">
-        <v>0.5</v>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.9167822468793342</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.5360610263522885</v>
+        <v>-1</v>
       </c>
       <c r="D110" t="n">
-        <v>-1</v>
+        <v>-0.1460462907882314</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.1624147942783233</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.3935477603221073</v>
+        <v>0.5844791442514505</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="n">
-        <v>1</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.07004160887656032</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.1844660194174757</v>
+        <v>0.5517375450754448</v>
       </c>
       <c r="D111" t="n">
-        <v>0.07306492878583369</v>
+        <v>0.1042456871851686</v>
       </c>
       <c r="E111" t="n">
-        <v>0.07473271735986423</v>
-      </c>
-      <c r="F111" t="n">
-        <v>-0.04692931470011096</v>
+        <v>-0.02663421420933138</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="n">
-        <v>1</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.7142857142857141</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.1310679611650486</v>
+        <v>-0.5171061060859404</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.7406426398597876</v>
+        <v>-0.1139328068633925</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.2483054362478376</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.2382657947652871</v>
+        <v>0.02106464514948284</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="n">
-        <v>1</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.341886269070735</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.1178918169209431</v>
+        <v>-0.2152646104877213</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1695843993634037</v>
+        <v>-0.1039400653812359</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.02910774805848299</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.05696901668821411</v>
+        <v>0.1103733525943136</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>1</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.1914008321775313</v>
+        <v>-0.1451941014121962</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.4296198553556679</v>
+        <v>-0.03883034169609177</v>
       </c>
       <c r="E114" t="n">
-        <v>0.117510219229069</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.4066635290464813</v>
+        <v>0.04595308003735632</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B115" s="1" t="n">
-        <v>1</v>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.660887656033287</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5388349514563106</v>
+        <v>-0.1818771530449849</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.2636997119200629</v>
+        <v>-0.5563544776323043</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.04805493551925683</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.1875213760667349</v>
+        <v>-0.07300443781599758</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B116" s="1" t="n">
-        <v>1</v>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.2350901525658806</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.9167822468793342</v>
+        <v>-0.1620062853804468</v>
       </c>
       <c r="D116" t="n">
-        <v>-1</v>
+        <v>0.2499986356169467</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.1460462907882314</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.5844791442514505</v>
+        <v>0.1611256639937289</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>1</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.006934812760055577</v>
       </c>
       <c r="C117" t="n">
-        <v>0.07004160887656032</v>
+        <v>-0.06248191945849035</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5517375450754448</v>
+        <v>-0.06315456276980677</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1042456871851686</v>
-      </c>
-      <c r="F117" t="n">
-        <v>-0.02663421420933138</v>
+        <v>0.1742590652402905</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B118" s="1" t="n">
-        <v>1</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-1</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.7142857142857141</v>
+        <v>1.626048067044058</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.5171061060859404</v>
+        <v>-0.9287983059820011</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.1139328068633925</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.02106464514948284</v>
+        <v>-0.8531247345790171</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>1</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4438280166435506</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.341886269070735</v>
+        <v>0.4065170531235521</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.2152646104877213</v>
+        <v>0.1652486178799671</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.1039400653812359</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.1103733525943136</v>
+        <v>-0.09444646854793352</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Papaverine_1C02</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>1</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.4174757281553397</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-0.8551439593867725</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.1451941014121962</v>
+        <v>-0.5537071651940426</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.03883034169609177</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.04595308003735632</v>
+        <v>0.3399188575585709</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>1</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.0638002773925104</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.660887656033287</v>
+        <v>-0.2307318842039525</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.1818771530449849</v>
+        <v>0.012653288436035</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.5563544776323043</v>
-      </c>
-      <c r="F121" t="n">
-        <v>-0.07300443781599758</v>
+        <v>0.1747121141118151</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B122" s="1" t="n">
-        <v>1</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.3085991678224686</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2350901525658806</v>
+        <v>0.06875118354519616</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1620062853804468</v>
+        <v>0.01921187777310857</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2499986356169467</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.1611256639937289</v>
+        <v>-0.02433222984691204</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B123" s="1" t="n">
-        <v>1</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.5762829403606102</v>
       </c>
       <c r="C123" t="n">
-        <v>0.006934812760055577</v>
+        <v>-0.7324367936501539</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.06248191945849035</v>
+        <v>-0.2535896918131559</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.06315456276980677</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.1742590652402905</v>
+        <v>0.2453328265172801</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B124" s="1" t="n">
-        <v>1</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.02149791955617202</v>
       </c>
       <c r="C124" t="n">
-        <v>-1</v>
+        <v>0.1520518140977858</v>
       </c>
       <c r="D124" t="n">
-        <v>1.626048067044058</v>
+        <v>0.03091828437017349</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.9287983059820011</v>
-      </c>
-      <c r="F124" t="n">
-        <v>-0.8531247345790171</v>
+        <v>0.009700544922920025</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B125" s="1" t="n">
-        <v>1</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.05686546463245495</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4438280166435506</v>
+        <v>0.644147948185902</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4065170531235521</v>
+        <v>-0.03753963532769757</v>
       </c>
       <c r="E125" t="n">
-        <v>0.1652486178799671</v>
-      </c>
-      <c r="F125" t="n">
-        <v>-0.09444646854793352</v>
+        <v>-0.009053854083233472</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>1</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.3717059639389737</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.4174757281553397</v>
+        <v>-0.02331432945869175</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.8551439593867725</v>
+        <v>-0.05501328909093893</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.5537071651940426</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.3399188575585709</v>
+        <v>-0.04979278831377638</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n"/>
-      <c r="B127" s="1" t="n">
-        <v>0.5</v>
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.8453536754507628</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.4036061026352287</v>
+        <v>-0.8500299965752734</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.1608372449082376</v>
+        <v>-0.4439129414461369</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.2079674512778813</v>
-      </c>
-      <c r="F127" t="n">
-        <v>-0.05174256613592489</v>
+        <v>0.6356645227746504</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>1</v>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.03814147018030518</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0638002773925104</v>
+        <v>-0.2371746006164508</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.2307318842039525</v>
+        <v>-0.5642889108402962</v>
       </c>
       <c r="E128" t="n">
-        <v>0.012653288436035</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.1747121141118151</v>
+        <v>-0.3904901185185015</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>1</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-1</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3085991678224686</v>
+        <v>-0.6088204838937127</v>
       </c>
       <c r="D129" t="n">
-        <v>0.06875118354519616</v>
+        <v>-0.9195205012197585</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01921187777310857</v>
-      </c>
-      <c r="F129" t="n">
-        <v>-0.02433222984691204</v>
+        <v>-0.3021141259759748</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>1</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.009708737864077709</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.5762829403606102</v>
+        <v>-0.1400793730735913</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.7324367936501539</v>
+        <v>-0.05443342629329866</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.2535896918131559</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.2453328265172801</v>
+        <v>0.04999822556281642</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>1</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.01941747572815518</v>
       </c>
       <c r="C131" t="n">
-        <v>0.02149791955617202</v>
+        <v>0.131329801164407</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1520518140977858</v>
+        <v>-0.01535203811540497</v>
       </c>
       <c r="E131" t="n">
-        <v>0.03091828437017349</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.009700544922920025</v>
+        <v>-0.1387428590309051</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>1</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.008321775312066643</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.05686546463245495</v>
+        <v>-0.009477225568605438</v>
       </c>
       <c r="D132" t="n">
-        <v>0.644147948185902</v>
+        <v>0.1655842561110719</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.03753963532769757</v>
-      </c>
-      <c r="F132" t="n">
-        <v>-0.009053854083233472</v>
+        <v>0.1791373853590795</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>1</v>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.02357836338418862</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.3717059639389737</v>
+        <v>-0.03752815326658485</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.02331432945869175</v>
+        <v>-0.1103021835586385</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.05501328909093893</v>
-      </c>
-      <c r="F133" t="n">
-        <v>-0.04979278831377638</v>
+        <v>0.1334684804450326</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>1</v>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.3814147018030513</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.8453536754507628</v>
+        <v>0.03324603638268307</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.8500299965752734</v>
+        <v>0.07389362178210236</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.4439129414461369</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.6356645227746504</v>
+        <v>0.1295804408809529</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>1</v>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.2142857142857144</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.03814147018030518</v>
+        <v>-0.7550131952698483</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.2371746006164508</v>
+        <v>0.1232570006494464</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.5642889108402962</v>
-      </c>
-      <c r="F135" t="n">
-        <v>-0.3904901185185015</v>
+        <v>0.1302862756047175</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>1</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.3432732316227464</v>
       </c>
       <c r="C136" t="n">
-        <v>-1</v>
+        <v>-0.386635306915933</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.6088204838937127</v>
+        <v>-0.2290498982170243</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.9195205012197585</v>
-      </c>
-      <c r="F136" t="n">
-        <v>-0.3021141259759748</v>
+        <v>0.1128138307047871</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>1</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.1386962552011098</v>
       </c>
       <c r="C137" t="n">
-        <v>0.009708737864077709</v>
+        <v>-0.2516065996494692</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1400793730735913</v>
+        <v>0.0325596371832585</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.05443342629329866</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.04999822556281642</v>
+        <v>0.1221259116957887</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>1</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.2857142857142858</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.01941747572815518</v>
+        <v>-0.7942629787062592</v>
       </c>
       <c r="D138" t="n">
-        <v>0.131329801164407</v>
+        <v>-0.08764660295907394</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.01535203811540497</v>
-      </c>
-      <c r="F138" t="n">
-        <v>-0.1387428590309051</v>
+        <v>0.2656831021871392</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>1</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.1927877947295421</v>
       </c>
       <c r="C139" t="n">
-        <v>0.008321775312066643</v>
+        <v>-0.4504119744555691</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.009477225568605438</v>
+        <v>0.0265386147691737</v>
       </c>
       <c r="E139" t="n">
-        <v>0.1655842561110719</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.1791373853590795</v>
+        <v>0.07590314174738748</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>1</v>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.03814147018030518</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.02357836338418862</v>
+        <v>-0.03693769012268591</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.03752815326658485</v>
+        <v>-0.06365119820119738</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.1103021835586385</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.1334684804450326</v>
+        <v>-0.04453102051070289</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>1</v>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.1435506241331485</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3814147018030513</v>
+        <v>-0.6829569491730293</v>
       </c>
       <c r="D141" t="n">
-        <v>0.03324603638268307</v>
+        <v>-0.06707443528185421</v>
       </c>
       <c r="E141" t="n">
-        <v>0.07389362178210236</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.1295804408809529</v>
+        <v>0.1754386224390398</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>1</v>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-0.03883495145631059</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2142857142857144</v>
+        <v>-0.4963016781159975</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.7550131952698483</v>
+        <v>-0.4655943525456659</v>
       </c>
       <c r="E142" t="n">
-        <v>0.1232570006494464</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.1302862756047175</v>
+        <v>0.152425251712594</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>1</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.3522884882108183</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.3432732316227464</v>
+        <v>-0.1992612663429965</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.386635306915933</v>
+        <v>-0.07485960498381837</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.2290498982170243</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.1128138307047871</v>
+        <v>0.06137239769361073</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>1</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.05062413314840502</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1386962552011098</v>
+        <v>-0.0848550534861702</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.2516065996494692</v>
+        <v>-0.2610726506688206</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0325596371832585</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.1221259116957887</v>
+        <v>0.05044289132999578</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>1</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.8294036061026352</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.017813815749713</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.7942629787062592</v>
+        <v>0.1404468627376071</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.08764660295907394</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.2656831021871392</v>
+        <v>-0.1549632673619308</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>1</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>-1</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.1927877947295421</v>
+        <v>-0.9453592941034267</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.4504119744555691</v>
+        <v>-0.03990683992512264</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0265386147691737</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.07590314174738748</v>
+        <v>0.4496220131053075</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>1</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.1054091539528432</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.03814147018030518</v>
+        <v>-0.04172968834988621</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.03693769012268591</v>
+        <v>-0.1615797918497216</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.06365119820119738</v>
-      </c>
-      <c r="F147" t="n">
-        <v>-0.04453102051070289</v>
+        <v>0.02081281857355564</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>1</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.05339805825242715</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1435506241331485</v>
+        <v>0.7635427788633937</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.6829569491730293</v>
+        <v>-0.05854431243280407</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.06707443528185421</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.1754386224390398</v>
+        <v>-0.1690147054566102</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>1</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>-0.9271844660194174</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.03883495145631059</v>
+        <v>0.4571363242611656</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.4963016781159975</v>
+        <v>-0.06291306696937775</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.4655943525456659</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.152425251712594</v>
+        <v>-0.2391152045807748</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>1</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.3522884882108183</v>
+        <v>-0.06249944600012087</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.1992612663429965</v>
+        <v>-0.1859858759066325</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.07485960498381837</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.06137239769361073</v>
+        <v>-0.003288300839883345</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B151" s="1" t="n">
-        <v>1</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.05062413314840514</v>
+        <v>-0.3041719212715807</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.0848550534861702</v>
+        <v>-0.1965994116780274</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.2610726506688206</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.05044289132999578</v>
+        <v>0.1450432658820241</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n"/>
-      <c r="B152" s="1" t="n">
-        <v>0.5</v>
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.03814147018030518</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.2011095700416089</v>
+        <v>-0.1070390217369408</v>
       </c>
       <c r="D152" t="n">
-        <v>-1</v>
+        <v>-0.03674556439069387</v>
       </c>
       <c r="E152" t="n">
-        <v>0.04764016307106228</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.1940503277651103</v>
+        <v>0.01156029361927497</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>1</v>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.8294036061026352</v>
+        <v>-0.3236610326557747</v>
       </c>
       <c r="D153" t="n">
-        <v>0.017813815749713</v>
+        <v>-0.1645975342869461</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1404468627376071</v>
-      </c>
-      <c r="F153" t="n">
-        <v>-0.1549632673619308</v>
+        <v>0.1504239381511786</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B154" s="1" t="n">
-        <v>0.5</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.6165048543689321</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.07628294036061024</v>
+        <v>-0.1187121013719052</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.8023469449424848</v>
+        <v>-0.3411939988975787</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.00340413571791114</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.1886100406443793</v>
+        <v>-0.1379380574341779</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n"/>
-      <c r="B155" s="1" t="n">
-        <v>1</v>
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.2739251040221915</v>
       </c>
       <c r="C155" t="n">
-        <v>-1</v>
+        <v>-0.0298051934970487</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.9453592941034267</v>
+        <v>0.1191611227235269</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.03990683992512253</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.4496220131053075</v>
+        <v>0.09323415756059192</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B156" s="1" t="n">
-        <v>1</v>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.08633841886269066</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.1054091539528432</v>
+        <v>-0.3106249118636556</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.04172968834988621</v>
+        <v>-0.06188977967942461</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.1615797918497216</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.02081281857355564</v>
+        <v>0.1492401681384679</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>1</v>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.1185852981969488</v>
       </c>
       <c r="C157" t="n">
-        <v>0.05339805825242715</v>
+        <v>1.204897358931486</v>
       </c>
       <c r="D157" t="n">
-        <v>0.7635427788633937</v>
+        <v>-0.05402274699426414</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.05854431243280407</v>
-      </c>
-      <c r="F157" t="n">
-        <v>-0.1690147054566102</v>
+        <v>-0.05937832566083132</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>1</v>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.01317614424410538</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.9271844660194174</v>
+        <v>0.08002921090271745</v>
       </c>
       <c r="D158" t="n">
-        <v>0.4571363242611656</v>
+        <v>0.01254140902566677</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.06291306696937775</v>
-      </c>
-      <c r="F158" t="n">
-        <v>-0.2391152045807748</v>
+        <v>-0.110719363596762</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>1</v>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.002773925104022132</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>0.9097258204234573</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.06249944600012087</v>
+        <v>0.1401166820387157</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.1859858759066325</v>
-      </c>
-      <c r="F159" t="n">
-        <v>-0.003288300839883345</v>
+        <v>-0.2525970482430247</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B160" s="1" t="n">
-        <v>1</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.1428571428571428</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>0.834448719756643</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.3041719212715807</v>
+        <v>-0.3168070162034131</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.1965994116780274</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.1450432658820241</v>
+        <v>-0.1469444301846654</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B161" s="1" t="n">
-        <v>1</v>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.1511789181692094</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.03814147018030518</v>
+        <v>0.169389794314954</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.1070390217369408</v>
+        <v>-0.2196056387222826</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.03674556439069387</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.01156029361927497</v>
+        <v>0.1236724499014482</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B162" s="1" t="n">
-        <v>1</v>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-0.03814147018030518</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>0.04614295211426489</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.3236610326557747</v>
+        <v>0.0006057860756522812</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.1645975342869461</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.1504239381511786</v>
+        <v>0.00664083873772654</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B163" s="1" t="n">
-        <v>1</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>-0.1490984743411928</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.6165048543689321</v>
+        <v>0.291709542899736</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.1187121013719052</v>
+        <v>-0.2025522149394487</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.3411939988975787</v>
-      </c>
-      <c r="F163" t="n">
-        <v>-0.1379380574341779</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.2739251040221915</v>
-      </c>
-      <c r="D164" t="n">
-        <v>-0.0298051934970487</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.1191611227235269</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.09323415756059192</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.08633841886269066</v>
-      </c>
-      <c r="D165" t="n">
-        <v>-0.3106249118636556</v>
-      </c>
-      <c r="E165" t="n">
-        <v>-0.06188977967942461</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.1492401681384679</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.1185852981969488</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.204897358931486</v>
-      </c>
-      <c r="E166" t="n">
-        <v>-0.05402274699426414</v>
-      </c>
-      <c r="F166" t="n">
-        <v>-0.05937832566083132</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.01317614424410538</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.08002921090271745</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.01254140902566677</v>
-      </c>
-      <c r="F167" t="n">
-        <v>-0.110719363596762</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>-0.002773925104022132</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.9097258204234573</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.1401166820387157</v>
-      </c>
-      <c r="F168" t="n">
-        <v>-0.2525970482430247</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.834448719756643</v>
-      </c>
-      <c r="E169" t="n">
-        <v>-0.3168070162034131</v>
-      </c>
-      <c r="F169" t="n">
-        <v>-0.1469444301846654</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-0.1511789181692094</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.169389794314954</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-0.2196056387222826</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.1236724499014482</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>-0.03814147018030518</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.04614295211426489</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.0006057860756522812</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.00664083873772654</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B172" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>-0.1490984743411928</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.291709542899736</v>
-      </c>
-      <c r="E172" t="n">
-        <v>-0.2025522149394487</v>
-      </c>
-      <c r="F172" t="n">
         <v>-0.09381460759996071</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A154:A155"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/2022-08-08_Behavior_Assay_fchange.xlsx
+++ b/Data/2022-08-08_Behavior_Assay_fchange.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,22 +455,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Moving [s]|Accomodation</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Velocity [mm/s]|Light</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Velocity [mm/s]|Dark</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Velocity|Ratio Light/Dark</t>
         </is>
@@ -461,16 +482,19 @@
           <t>(+)-Mefloquine_2C11</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.2163661581137311</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-0.5882733334676362</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.05325050618611279</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0960697894743031</v>
       </c>
     </row>
@@ -480,16 +504,19 @@
           <t>(-)-Anisomycin_2F06</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>-0.1019417475728156</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.8883523036322246</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.04021382611210863</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.2915454656748175</v>
       </c>
     </row>
@@ -499,16 +526,19 @@
           <t>(RS)-PPCC_2E05</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.5312066574202495</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.3354090533652975</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.06113118270180581</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.005583402957726765</v>
       </c>
     </row>
@@ -518,16 +548,19 @@
           <t>ABT 239_1F10</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>-0.1067961165048543</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-0.458792481718004</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-0.2839581298128612</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.2157469639087498</v>
       </c>
     </row>
@@ -537,16 +570,19 @@
           <t>AZ3451_2E06</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.03051317614424407</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1.177414331473237</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-0.04367117276909726</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.2700644940764801</v>
       </c>
     </row>
@@ -556,16 +592,19 @@
           <t>Abacavir_2H07</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>-0.1650485436893205</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.3055258969761679</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-0.06226771378518053</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.02163663026332149</v>
       </c>
     </row>
@@ -575,16 +614,19 @@
           <t>Abemaciclib_1G11</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
         <v>-0.0762829403606101</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-0.0006567416748927113</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-0.1855233500515737</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.05383496844456326</v>
       </c>
     </row>
@@ -594,16 +636,19 @@
           <t>Almitrine_1G04</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>-0.9791955617198334</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-0.4189297233576921</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.6002671475912116</v>
       </c>
     </row>
@@ -613,16 +658,19 @@
           <t>Amiodarone_1F03</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
         <v>-0.1067961165048543</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-0.5153598178851306</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-0.1661763983561914</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3550638388123123</v>
       </c>
     </row>
@@ -632,16 +680,19 @@
           <t>Amodiaquine_1D03</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
         <v>-0.03814147018030518</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.003706964282116794</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>-0.07382130948027919</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.08858335972710234</v>
       </c>
     </row>
@@ -651,16 +702,19 @@
           <t>Amuvatinib_1E04</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.7260748959778086</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>-0.8672636435061142</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-0.001987906108615802</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2564603495245864</v>
       </c>
     </row>
@@ -670,16 +724,19 @@
           <t>Anagliptin_2E10</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.6643550624133149</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.4288563427949799</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.1953741956961901</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>-0.0929778334691635</v>
       </c>
     </row>
@@ -689,16 +746,19 @@
           <t>Anidulafungin_2B03</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>-0.9667128987517337</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>-0.2778919800962953</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-0.3122881795309798</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2806038258249763</v>
       </c>
     </row>
@@ -708,16 +768,19 @@
           <t>Apilimod_1B03</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="n">
         <v>0.4556171983356451</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>-1</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-0.1960236420295473</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.6614427353387263</v>
       </c>
     </row>
@@ -727,16 +790,19 @@
           <t>Apixaban_2H09</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
         <v>0.7226074895977809</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.04725115332702099</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.1893122417905073</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.06541589268211959</v>
       </c>
     </row>
@@ -746,16 +812,19 @@
           <t>Apremilast_2F05</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
         <v>0.3307905686546462</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>-0.2101706319627712</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.02626028062630642</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1850729568804193</v>
       </c>
     </row>
@@ -765,16 +834,19 @@
           <t>Aprepitant_2F03</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
         <v>0.2649098474341194</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.3369874493845565</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-0.02677192427128305</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>-0.1412652294681047</v>
       </c>
     </row>
@@ -784,2756 +856,3381 @@
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
         <v>-1</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>-0.2983097967324079</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-0.7622922317486479</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-0.9802907768899706</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.002773925104022379</v>
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1115070811257278</v>
+        <v>0.1317614424410541</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.031197982896094</v>
+        <v>-1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3275731867215356</v>
+        <v>-0.3447332085377635</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.04766930507126504</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.3051317614424411</v>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2844356252140454</v>
+        <v>0.002773925104022379</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02508281805133367</v>
+        <v>-0.1115070811257278</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1441064853059497</v>
+        <v>-0.031197982896094</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3275731867215356</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.2233009708737863</v>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6709675859707084</v>
+        <v>0.3051317614424411</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02959892595766048</v>
+        <v>-0.2844356252140454</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4167255282586009</v>
+        <v>0.02508281805133367</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1441064853059497</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.393897364771151</v>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08760450452265361</v>
+        <v>-0.2233009708737863</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1804464807103525</v>
+        <v>-0.6709675859707084</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.1014596810427114</v>
+        <v>0.02959892595766048</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4167255282586009</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.2357836338418863</v>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7988053748060999</v>
+        <v>-0.393897364771151</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2308181386540636</v>
+        <v>0.08760450452265361</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.338124549989579</v>
+        <v>-0.1804464807103525</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1014596810427114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.1629680998613037</v>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4567054130824552</v>
+        <v>-0.2357836338418863</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1171220522504133</v>
+        <v>0.7988053748060999</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.02871455894917948</v>
+        <v>-0.2308181386540636</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.338124549989579</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.1553398058252429</v>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5183645923568161</v>
+        <v>-0.1629680998613037</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1308538854900591</v>
+        <v>0.4567054130824552</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.1089237924285655</v>
+        <v>-0.1171220522504133</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.02871455894917948</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.01213592233009714</v>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.585383468643607</v>
+        <v>0.1553398058252429</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1799771329400271</v>
+        <v>0.5183645923568161</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2005447718318555</v>
+        <v>-0.1308538854900591</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.1089237924285655</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-1</v>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.9952517173996253</v>
+        <v>-0.01213592233009714</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.9493219016225243</v>
+        <v>-0.585383468643607</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.3647202988331421</v>
+        <v>-0.1799771329400271</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2005447718318555</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Camostat_1E10</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.4639389736477115</v>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>-1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02474035790496253</v>
+        <v>-0.9952517173996253</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4057372884837265</v>
+        <v>-0.9493219016225243</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.3647202988331421</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Captopril_1F07</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.7475728155339805</v>
+          <t>Camostat_1E10</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.2658719958097464</v>
+        <v>0.4639389736477115</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1270404348561668</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1635781991202515</v>
+        <v>0.02474035790496253</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.4057372884837265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.1699029126213592</v>
+          <t>Captopril_1F07</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>3.079070891839078</v>
+        <v>0.7475728155339805</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1769386518803927</v>
+        <v>-0.2658719958097464</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.3235659054775396</v>
+        <v>-0.1270404348561668</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1635781991202515</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.01595006934812751</v>
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.6434696508793488</v>
+        <v>-0.1699029126213592</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.06446573488400011</v>
+        <v>3.079070891839078</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1646313500771158</v>
+        <v>-0.1769386518803927</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.3235659054775396</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.07281553398058245</v>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.266959447208848</v>
+        <v>0.01595006934812751</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08292583759475634</v>
+        <v>-0.6434696508793488</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.004990172810580464</v>
+        <v>-0.06446573488400011</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1646313500771158</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-1</v>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1720356977376658</v>
+        <v>0.07281553398058245</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05517292190817152</v>
+        <v>0.266959447208848</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.02194360348021865</v>
+        <v>0.08292583759475634</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.004990172810580464</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.7156726768377255</v>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.5495775499103527</v>
+        <v>-1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2031375352693019</v>
+        <v>0.1720356977376658</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1763993266401089</v>
+        <v>0.05517292190817152</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.02194360348021865</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.06241331484049932</v>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2535649388585588</v>
+        <v>0.7156726768377255</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1407224681143681</v>
+        <v>-0.5495775499103527</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09734199664308596</v>
+        <v>0.2031375352693019</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1763993266401089</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Clomipramine_1E08</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.4750346740638002</v>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>-1</v>
+        <v>-0.06241331484049932</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3830527252187105</v>
+        <v>-0.2535649388585588</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5371744751236963</v>
+        <v>-0.1407224681143681</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.09734199664308596</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.6532593619972261</v>
+          <t>Clomipramine_1E08</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.397081327182256</v>
+        <v>-0.4750346740638002</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1480915009850846</v>
+        <v>-1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1613262272916128</v>
+        <v>-0.3830527252187105</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.5371744751236963</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-0.6532593619972261</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-0.397081327182256</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>-0.1480915009850846</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1613262272916128</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>-0.3120665742024965</v>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.01757891980096297</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0943921127744457</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01003500326802596</v>
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Cyclosporine_1F04</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-0.02357836338418862</v>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2346533975301676</v>
+        <v>-0.3120665742024965</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.01533566551876573</v>
+        <v>-0.01757891980096297</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1075827382518161</v>
+        <v>-0.0943921127744457</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01003500326802596</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>-0.7884882108183079</v>
+          <t>Cyclosporine_1F04</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4942801023388869</v>
+        <v>-0.02357836338418862</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.07244464697952879</v>
+        <v>-0.2346533975301676</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.2716596183892275</v>
+        <v>-0.01533566551876573</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1075827382518161</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Daclatasvir_1C04</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.0152565880721221</v>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1415896774713432</v>
+        <v>-0.7884882108183079</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1202594510814101</v>
+        <v>0.4942801023388869</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1252887991957702</v>
+        <v>-0.07244464697952879</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.2716596183892275</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.06518723994452147</v>
+          <t>Daclatasvir_1C04</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3360990350329378</v>
+        <v>0.0152565880721221</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.01771651394672348</v>
+        <v>-0.1415896774713432</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.1827437925291101</v>
+        <v>0.1202594510814101</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1252887991957702</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>-0.9771151178918169</v>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001592497834364164</v>
+        <v>0.06518723994452147</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1707034213269444</v>
+        <v>0.3360990350329378</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.1015836290072316</v>
+        <v>-0.01771651394672348</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.1827437925291101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.3016643550624133</v>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.01185922359435116</v>
+        <v>-0.9771151178918169</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.05191886832612034</v>
+        <v>0.001592497834364164</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0446189357374271</v>
+        <v>-0.1707034213269444</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.1015836290072316</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.136615811373093</v>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.3284955377827919</v>
+        <v>0.3016643550624133</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.06010925979490589</v>
+        <v>-0.01185922359435116</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1850747015447177</v>
+        <v>-0.05191886832612034</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0446189357374271</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.7392510402219139</v>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4314309313241605</v>
+        <v>0.136615811373093</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3272950287339071</v>
+        <v>-0.3284955377827919</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.007087294848848852</v>
+        <v>-0.06010925979490589</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1850747015447177</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>-0.3335644937586685</v>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.07068756421362241</v>
+        <v>0.7392510402219139</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0981277935743015</v>
+        <v>0.4314309313241605</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.04973513485483904</v>
+        <v>0.3272950287339071</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.007087294848848852</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.2898751733703189</v>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2238415358891194</v>
+        <v>-0.3335644937586685</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1232897458427247</v>
+        <v>-0.07068756421362241</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.02971431053117082</v>
+        <v>-0.0981277935743015</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.04973513485483904</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>-0.6199722607489597</v>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.6965126211245191</v>
+        <v>0.2898751733703189</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.372344228386808</v>
+        <v>0.2238415358891194</v>
       </c>
       <c r="E51" t="n">
-        <v>0.09998828829951309</v>
+        <v>0.1232897458427247</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.02971431053117082</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Digoxin_1D02</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>-0.03814147018030518</v>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.02961361026612148</v>
+        <v>-0.6199722607489597</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01725125932555812</v>
+        <v>-0.6965126211245191</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.05726378807378781</v>
+        <v>-0.372344228386808</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.09998828829951309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>-0.2558945908460472</v>
+          <t>Digoxin_1D02</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.3338463707971555</v>
+        <v>-0.03814147018030518</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.03494048561121625</v>
+        <v>-0.02961361026612148</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0389104364917102</v>
+        <v>-0.01725125932555812</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.05726378807378781</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.298890429958391</v>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04470879751808058</v>
+        <v>-0.2558945908460472</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06763383233369534</v>
+        <v>-0.3338463707971555</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.03187405926792299</v>
+        <v>-0.03494048561121625</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0389104364917102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Doxycycline_1E05</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.08391123439667135</v>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.6376458026954613</v>
+        <v>0.298890429958391</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.007273526056987517</v>
+        <v>0.04470879751808058</v>
       </c>
       <c r="E55" t="n">
-        <v>0.09076621813627457</v>
+        <v>0.06763383233369534</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.03187405926792299</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.1109570041608879</v>
+          <t>Doxycycline_1E05</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1430302786115756</v>
+        <v>-0.08391123439667135</v>
       </c>
       <c r="D56" t="n">
-        <v>0.05690841715193218</v>
+        <v>-0.6376458026954613</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07053017824922798</v>
+        <v>-0.007273526056987517</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.09076621813627457</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.4070735090152568</v>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.2830073127984044</v>
+        <v>0.1109570041608879</v>
       </c>
       <c r="D57" t="n">
-        <v>0.173889255756332</v>
+        <v>0.1430302786115756</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1085088059738079</v>
+        <v>0.05690841715193218</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.07053017824922798</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.03398058252427173</v>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.4221255464453353</v>
+        <v>0.4070735090152568</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.04498098050023749</v>
+        <v>-0.2830073127984044</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2169052547051243</v>
+        <v>0.173889255756332</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1085088059738079</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Emetine_1E06</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.6636615811373092</v>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>-1</v>
+        <v>0.03398058252427173</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07146501994728023</v>
+        <v>-0.4221255464453353</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5106244587705056</v>
+        <v>-0.04498098050023749</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.2169052547051243</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.6026352288488211</v>
+          <t>Emetine_1E06</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.1340232478494733</v>
+        <v>0.6636615811373092</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.03783297768415075</v>
+        <v>-1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1646526534257346</v>
+        <v>0.07146501994728023</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.5106244587705056</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.2122052704576977</v>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.1608775358085376</v>
+        <v>-0.6026352288488211</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1294417490299235</v>
+        <v>-0.1340232478494733</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0904348398509958</v>
+        <v>-0.03783297768415075</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1646526534257346</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>-0.3509015256588072</v>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.002030661375128445</v>
+        <v>0.2122052704576977</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3712977465849492</v>
+        <v>-0.1608775358085376</v>
       </c>
       <c r="E62" t="n">
-        <v>0.04877927309812881</v>
+        <v>0.1294417490299235</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0904348398509958</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Favipiravir_1D10</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>-0.02704576976421641</v>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.09884747879691365</v>
+        <v>-0.3509015256588072</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.08987736925117198</v>
+        <v>0.002030661375128445</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.02095186927197731</v>
+        <v>0.3712977465849492</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.04877927309812881</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.1081830790568654</v>
+          <t>Favipiravir_1D10</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4190515522069341</v>
+        <v>-0.02704576976421641</v>
       </c>
       <c r="D64" t="n">
-        <v>0.003191291961600685</v>
+        <v>-0.09884747879691365</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.02010798396651032</v>
+        <v>-0.08987736925117198</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.02095186927197731</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>-0.7784327323162274</v>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1568361570539293</v>
+        <v>0.1081830790568654</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.1730542533277304</v>
+        <v>0.4190515522069341</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.009442397916116308</v>
+        <v>0.003191291961600685</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.02010798396651032</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.09708737864077673</v>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9782791756481799</v>
+        <v>-0.7784327323162274</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3337362811283991</v>
+        <v>-0.1568361570539293</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.04695166164445973</v>
+        <v>-0.1730542533277304</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.009442397916116308</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.225381414701803</v>
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.574473700114829</v>
+        <v>0.09708737864077673</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.03196749493813878</v>
+        <v>0.9782791756481799</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.05406683466756263</v>
+        <v>0.3337362811283991</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.04695166164445973</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>GSK 983_1C07</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.3138614798847681</v>
+        <v>0.225381414701803</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.05413735517073881</v>
+        <v>0.574473700114829</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2643691870889809</v>
+        <v>-0.03196749493813878</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.05406683466756263</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>GSK-369796_1C03</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.01248266296809984</v>
+          <t>GSK 983_1C07</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.170466568625476</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.07892000895035271</v>
+        <v>-0.3138614798847681</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1226224743025026</v>
+        <v>-0.05413735517073881</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.2643691870889809</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Halofantrine_1D05</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>-0.03814147018030518</v>
+          <t>GSK-369796_1C03</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.3224716452789138</v>
+        <v>0.01248266296809984</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.2292463693766953</v>
+        <v>-0.170466568625476</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1482034342611945</v>
+        <v>-0.07892000895035271</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.1226224743025026</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>-0.08876560332871009</v>
+          <t>Halofantrine_1D05</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.5236789621064082</v>
+        <v>-0.03814147018030518</v>
       </c>
       <c r="D71" t="n">
-        <v>0.008635180344151899</v>
+        <v>-0.3224716452789138</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3253923929153353</v>
+        <v>-0.2292463693766953</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1482034342611945</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-0.9244105409153953</v>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.3025586736235621</v>
+        <v>-0.08876560332871009</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05775979217717327</v>
+        <v>-0.5236789621064082</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4202292592203075</v>
+        <v>0.008635180344151899</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.3253923929153353</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.0284327323162276</v>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.03673583271218209</v>
+        <v>-0.9244105409153953</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.1776549529833601</v>
+        <v>-0.3025586736235621</v>
       </c>
       <c r="E73" t="n">
-        <v>0.03203070507181045</v>
+        <v>0.05775979217717327</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.4202292592203075</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Hydroxyprogesterone_1E02</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.2586685159500692</v>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.8541086645581095</v>
+        <v>0.0284327323162276</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0704963079794578</v>
+        <v>0.03673583271218209</v>
       </c>
       <c r="E74" t="n">
-        <v>0.183643036875644</v>
+        <v>-0.1776549529833601</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.03203070507181045</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.08252427184466028</v>
+          <t>Hydroxyprogesterone_1E02</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.1220058824714439</v>
+        <v>0.2586685159500692</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.104403955619348</v>
+        <v>-0.8541086645581095</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1021780919590051</v>
+        <v>0.0704963079794578</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.183643036875644</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>-0.06518723994452147</v>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.2298930276597031</v>
+        <v>0.08252427184466028</v>
       </c>
       <c r="D76" t="n">
-        <v>0.05569820938368084</v>
+        <v>-0.1220058824714439</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2311834246567411</v>
+        <v>-0.104403955619348</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.1021780919590051</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.3252427184466019</v>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.1339994762182963</v>
+        <v>-0.06518723994452147</v>
       </c>
       <c r="D77" t="n">
-        <v>0.005864118362958639</v>
+        <v>-0.2298930276597031</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03979456869174545</v>
+        <v>0.05569820938368084</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.2311834246567411</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Indomethacin_1F06</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.4341192787794731</v>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3838228006204798</v>
+        <v>0.3252427184466019</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1492580484956313</v>
+        <v>-0.1339994762182963</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1343160389164964</v>
+        <v>0.005864118362958639</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.03979456869174545</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Itraconazole_1C06</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.0152565880721221</v>
+          <t>Indomethacin_1F06</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.4011855597413325</v>
+        <v>0.4341192787794731</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.1359858759066324</v>
+        <v>0.3838228006204798</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3235895690555088</v>
+        <v>0.1492580484956313</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.1343160389164964</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Ivermectin_1F05</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>-0.04160887656033285</v>
+          <t>Itraconazole_1C06</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>2.439110376921372</v>
+        <v>0.0152565880721221</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.8546768322300022</v>
+        <v>-0.4011855597413325</v>
       </c>
       <c r="E80" t="n">
-        <v>-1</v>
+        <v>-0.1359858759066324</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.3235895690555088</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>-0.5124826629680999</v>
+          <t>Ivermectin_1F05</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.4389294707790245</v>
+        <v>-1</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.1417703142992802</v>
+        <v>1.635173955962046</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2254738683612052</v>
+        <v>-0.8264646652076864</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.9881294922957468</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>-0.5533980582524269</v>
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.05051834243236168</v>
+        <v>-0.04160887656033285</v>
       </c>
       <c r="D82" t="n">
-        <v>0.05657005015472095</v>
+        <v>4.484297024517013</v>
       </c>
       <c r="E82" t="n">
-        <v>0.07634512324459494</v>
+        <v>-0.8546768322300022</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.2216045851044542</v>
+        <v>-0.5124826629680999</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01663728695158617</v>
+        <v>-0.4389294707790245</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1246846076202101</v>
+        <v>-0.1417703142992802</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.2254738683612052</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1555855275086122</v>
+        <v>-0.5533980582524269</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.05848837272762002</v>
+        <v>-0.05051834243236168</v>
       </c>
       <c r="E84" t="n">
-        <v>0.115473539662485</v>
+        <v>0.05657005015472095</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.07634512324459494</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.09500693481276</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.06570760893652168</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.07694711105532293</v>
+        <v>-0.2216045851044542</v>
       </c>
       <c r="E85" t="n">
-        <v>0.08359528468397164</v>
+        <v>-0.01663728695158617</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1246846076202101</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>-0.03536754507628292</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.04259553979733676</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.08237189807512835</v>
+        <v>-0.1555855275086122</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1317508361946084</v>
+        <v>-0.05848837272762002</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.115473539662485</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.1934812760055477</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.01793227099659542</v>
+        <v>0.09500693481276</v>
       </c>
       <c r="D87" t="n">
-        <v>0.07094109685482426</v>
+        <v>-0.06570760893652168</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1045185105411551</v>
+        <v>0.07694711105532293</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.08359528468397164</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>-0.9590846047156727</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1127127863172102</v>
+        <v>-0.03536754507628292</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.1658939710641643</v>
+        <v>-0.04259553979733676</v>
       </c>
       <c r="E88" t="n">
-        <v>0.02314632066764015</v>
+        <v>-0.08237189807512835</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.1317508361946084</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>-0.4895977808599167</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1101915832309273</v>
+        <v>0.1934812760055477</v>
       </c>
       <c r="D89" t="n">
-        <v>0.00362380138948769</v>
+        <v>-0.01793227099659542</v>
       </c>
       <c r="E89" t="n">
-        <v>0.05192212002143264</v>
+        <v>0.07094109685482426</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1045185105411551</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>-0.2829403606102635</v>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.7687070650093676</v>
+        <v>-0.9590846047156727</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.179708349478533</v>
+        <v>0.1127127863172102</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1443531696550992</v>
+        <v>-0.1658939710641643</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.02314632066764015</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>-0.3876560332871012</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0.07546626644372381</v>
+        <v>-0.4895977808599167</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.1064546233484143</v>
+        <v>0.1101915832309273</v>
       </c>
       <c r="E91" t="n">
-        <v>0.01322896693885449</v>
+        <v>0.00362380138948769</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.05192212002143264</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>-0.9833564493758669</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.5260291303209168</v>
+        <v>-0.2829403606102635</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.404835646417403</v>
+        <v>-0.7687070650093676</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.1439794944542062</v>
+        <v>-0.179708349478533</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.1443531696550992</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>-0.180998613037448</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01810471604988007</v>
+        <v>-0.3876560332871012</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.1985804958713769</v>
+        <v>0.07546626644372381</v>
       </c>
       <c r="E93" t="n">
-        <v>0.004307373753087635</v>
+        <v>-0.1064546233484143</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.01322896693885449</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.1407766990291262</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5638771933358852</v>
+        <v>-0.9833564493758669</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.0651383757292628</v>
+        <v>-0.5260291303209168</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.2424572125220813</v>
+        <v>-0.4048356464174029</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.1439794944542062</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.4840499306518721</v>
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C95" t="n">
-        <v>2.016333930981688</v>
+        <v>0.1740638002773925</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1713801553213667</v>
+        <v>-0.5450351538105119</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.3455265625096632</v>
+        <v>0.003024837229101627</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.01945231818689795</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.7981969486823856</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5999657527347446</v>
+        <v>-0.180998613037448</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1625485038175437</v>
+        <v>0.01810471604988007</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.172641648190466</v>
+        <v>-0.1985804958713769</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.004307373753087635</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.03467406380027752</v>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.06251938999576946</v>
+        <v>0.1407766990291262</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.02135259478369075</v>
+        <v>0.5638771933358852</v>
       </c>
       <c r="E97" t="n">
-        <v>0.06125335071148118</v>
+        <v>-0.0651383757292628</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.2424572125220813</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>-0.9771151178918169</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.02079272346340574</v>
+        <v>0.4840499306518723</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0104395769321028</v>
+        <v>2.016333930981688</v>
       </c>
       <c r="E98" t="n">
-        <v>0.05834072444513574</v>
+        <v>0.1713801553213668</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.3455265625096632</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.03467406380027739</v>
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2214226716895989</v>
+        <v>-0.935506241331484</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1953687381639771</v>
+        <v>-0.9102741795765427</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1482948670476459</v>
+        <v>0.007632358799997771</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.1823505894927167</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.4736477115117892</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.1273293176736036</v>
+        <v>0.7981969486823856</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2055866028499234</v>
+        <v>0.5999657527347446</v>
       </c>
       <c r="E100" t="n">
-        <v>0.09435794796750346</v>
+        <v>0.1625485038175437</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.172641648190466</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>-0.3169209431345354</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.0427305143133424</v>
+        <v>0.05825242718446601</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.0555754149088865</v>
+        <v>0.09779810229859581</v>
       </c>
       <c r="E101" t="n">
-        <v>0.008414749808441559</v>
+        <v>0.06044489802601044</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.05293764732218314</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.4778085991678226</v>
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7238304558915369</v>
+        <v>0.03467406380027752</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2728452298439691</v>
+        <v>0.06251938999576946</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.07610397984096809</v>
+        <v>-0.02135259478369075</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.06125335071148118</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.1192787794729543</v>
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1451721428715326</v>
+        <v>0.4590846047156726</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0661834931480683</v>
+        <v>-0.1678960091863253</v>
       </c>
       <c r="E103" t="n">
-        <v>0.08754021172496683</v>
+        <v>0.03014467917896881</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.159827430856779</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>-0.5360610263522885</v>
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="C104" t="n">
-        <v>-1</v>
+        <v>0.1386962552011097</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1624147942783233</v>
+        <v>0.1297467716916136</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3935477603221073</v>
+        <v>0.06289328341510533</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.06313025588005076</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>-0.1844660194174757</v>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07306492878583369</v>
+        <v>-0.9771151178918169</v>
       </c>
       <c r="D105" t="n">
-        <v>0.07473271735986423</v>
+        <v>-0.02079272346340574</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.04692931470011096</v>
+        <v>0.0104395769321028</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.05834072444513574</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>-0.1310679611650486</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.7406426398597876</v>
+        <v>0.03467406380027739</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.2483054362478376</v>
+        <v>0.2214226716895989</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2382657947652871</v>
+        <v>0.1953687381639771</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1482948670476459</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>-0.1178918169209431</v>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.1695843993634037</v>
+        <v>0.4736477115117892</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.02910774805848299</v>
+        <v>-0.1273293176736036</v>
       </c>
       <c r="E107" t="n">
-        <v>0.05696901668821411</v>
+        <v>0.2055866028499234</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.09435794796750346</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.1914008321775313</v>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.4296198553556679</v>
+        <v>-0.3169209431345354</v>
       </c>
       <c r="D108" t="n">
-        <v>0.117510219229069</v>
+        <v>-0.0427305143133424</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4066635290464813</v>
+        <v>-0.0555754149088865</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.008414749808441559</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.5388349514563106</v>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.2636997119200629</v>
+        <v>0.4778085991678226</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.04805493551925683</v>
+        <v>0.7238304558915369</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1875213760667349</v>
+        <v>0.2728452298439691</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.07610397984096809</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.9167822468793342</v>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>-1</v>
+        <v>0.1192787794729543</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1460462907882314</v>
+        <v>0.1451721428715326</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5844791442514505</v>
+        <v>0.0661834931480683</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.08754021172496683</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.07004160887656032</v>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5517375450754448</v>
+        <v>-0.5360610263522885</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1042456871851686</v>
+        <v>-1</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.02663421420933138</v>
+        <v>-0.1624147942783233</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.3935477603221073</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.7142857142857141</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.5171061060859404</v>
+        <v>-0.1844660194174757</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1139328068633925</v>
+        <v>0.07306492878583369</v>
       </c>
       <c r="E112" t="n">
-        <v>0.02106464514948284</v>
+        <v>0.07473271735986423</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.04692931470011096</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>-0.341886269070735</v>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.2152646104877213</v>
+        <v>-0.1310679611650486</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1039400653812359</v>
+        <v>-0.7406426398597876</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1103733525943136</v>
+        <v>-0.2483054362478376</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.2382657947652871</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Papaverine_1C02</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.1451941014121962</v>
+        <v>-0.1178918169209431</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.03883034169609177</v>
+        <v>-0.1695843993634037</v>
       </c>
       <c r="E114" t="n">
-        <v>0.04595308003735632</v>
+        <v>-0.02910774805848299</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.05696901668821411</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>-0.660887656033287</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.1818771530449849</v>
+        <v>-0.1914008321775313</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.5563544776323043</v>
+        <v>-0.4296198553556679</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.07300443781599758</v>
+        <v>0.117510219229069</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.4066635290464813</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.2350901525658806</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.1620062853804468</v>
+        <v>0.5388349514563106</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2499986356169467</v>
+        <v>-0.2636997119200629</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1611256639937289</v>
+        <v>-0.04805493551925683</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.1875213760667349</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.006934812760055577</v>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.06248191945849035</v>
+        <v>-0.9167822468793342</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.06315456276980677</v>
+        <v>-1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1742590652402905</v>
+        <v>-0.1460462907882314</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.5844791442514505</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>-1</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>1.626048067044058</v>
+        <v>0.07004160887656032</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.9287983059820011</v>
+        <v>0.5517375450754448</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.8531247345790171</v>
+        <v>0.1042456871851686</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.02663421420933138</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.4438280166435506</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4065170531235521</v>
+        <v>-0.7142857142857141</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1652486178799671</v>
+        <v>-0.5171061060859404</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.09444646854793352</v>
+        <v>-0.1139328068633925</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.02106464514948284</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>-0.4174757281553397</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.8551439593867725</v>
+        <v>-0.341886269070735</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.5537071651940426</v>
+        <v>-0.2152646104877213</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3399188575585709</v>
+        <v>-0.1039400653812359</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.1103733525943136</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.0638002773925104</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.2307318842039525</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.012653288436035</v>
+        <v>-0.1451941014121962</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1747121141118151</v>
+        <v>-0.03883034169609177</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.04595308003735632</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.3085991678224686</v>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.06875118354519616</v>
+        <v>-0.660887656033287</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01921187777310857</v>
+        <v>-0.1818771530449849</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.02433222984691204</v>
+        <v>-0.5563544776323043</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.07300443781599758</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>-0.5762829403606102</v>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.7324367936501539</v>
+        <v>0.2350901525658806</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.2535896918131559</v>
+        <v>-0.1620062853804468</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2453328265172801</v>
+        <v>0.2499986356169467</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.1611256639937289</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0.02149791955617202</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1520518140977858</v>
+        <v>0.006934812760055577</v>
       </c>
       <c r="D124" t="n">
-        <v>0.03091828437017349</v>
+        <v>-0.06248191945849035</v>
       </c>
       <c r="E124" t="n">
-        <v>0.009700544922920025</v>
+        <v>-0.06315456276980677</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.1742590652402905</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>-0.05686546463245495</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0.644147948185902</v>
+        <v>-1</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.03753963532769757</v>
+        <v>1.626048067044058</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.009053854083233472</v>
+        <v>-0.9287983059820011</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.8531247345790171</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>-0.3717059639389737</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.02331432945869175</v>
+        <v>0.4438280166435506</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.05501328909093893</v>
+        <v>0.4065170531235521</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.04979278831377638</v>
+        <v>0.1652486178799671</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.09444646854793352</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>-0.8453536754507628</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.8500299965752734</v>
+        <v>-0.4174757281553397</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.4439129414461369</v>
+        <v>-0.8551439593867725</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6356645227746504</v>
+        <v>-0.5537071651940426</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.3399188575585709</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>-0.03814147018030518</v>
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.2371746006164508</v>
+        <v>-0.4036061026352287</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.5642889108402962</v>
+        <v>-0.1608372449082376</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.3904901185185015</v>
+        <v>-0.2079674512778813</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.05174256613592489</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>-1</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.6088204838937127</v>
+        <v>0.0638002773925104</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.9195205012197585</v>
+        <v>-0.2307318842039525</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.3021141259759748</v>
+        <v>0.012653288436035</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.1747121141118151</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0.009708737864077709</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.1400793730735913</v>
+        <v>0.3085991678224686</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.05443342629329866</v>
+        <v>0.06875118354519616</v>
       </c>
       <c r="E130" t="n">
-        <v>0.04999822556281642</v>
+        <v>0.01921187777310857</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.02433222984691204</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.01941747572815518</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.131329801164407</v>
+        <v>-0.5762829403606102</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.01535203811540497</v>
+        <v>-0.7324367936501539</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.1387428590309051</v>
+        <v>-0.2535896918131559</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.2453328265172801</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.008321775312066643</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.009477225568605438</v>
+        <v>0.02149791955617202</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1655842561110719</v>
+        <v>0.1520518140977858</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1791373853590795</v>
+        <v>0.03091828437017349</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.009700544922920025</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>-0.02357836338418862</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.03752815326658485</v>
+        <v>-0.05686546463245495</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.1103021835586385</v>
+        <v>0.644147948185902</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1334684804450326</v>
+        <v>-0.03753963532769757</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.009053854083233472</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0.3814147018030513</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0.03324603638268307</v>
+        <v>-0.3717059639389737</v>
       </c>
       <c r="D134" t="n">
-        <v>0.07389362178210236</v>
+        <v>-0.02331432945869175</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1295804408809529</v>
+        <v>-0.05501328909093893</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.04979278831377638</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0.2142857142857144</v>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.7550131952698483</v>
+        <v>-0.8453536754507628</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1232570006494464</v>
+        <v>-0.8500299965752734</v>
       </c>
       <c r="E135" t="n">
-        <v>0.1302862756047175</v>
+        <v>-0.4439129414461369</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.6356645227746504</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>-0.3432732316227464</v>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.386635306915933</v>
+        <v>-0.03814147018030518</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.2290498982170243</v>
+        <v>-0.2371746006164508</v>
       </c>
       <c r="E136" t="n">
-        <v>0.1128138307047871</v>
+        <v>-0.5642889108402962</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.3904901185185015</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.1386962552011098</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.2516065996494692</v>
+        <v>-1</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0325596371832585</v>
+        <v>-0.6088204838937127</v>
       </c>
       <c r="E137" t="n">
-        <v>0.1221259116957887</v>
+        <v>-0.9195205012197585</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.3021141259759748</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.2857142857142858</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.7942629787062592</v>
+        <v>0.009708737864077709</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.08764660295907394</v>
+        <v>-0.1400793730735913</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2656831021871392</v>
+        <v>-0.05443342629329866</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.04999822556281642</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>-0.1927877947295421</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.4504119744555691</v>
+        <v>-0.01941747572815518</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0265386147691737</v>
+        <v>0.131329801164407</v>
       </c>
       <c r="E139" t="n">
-        <v>0.07590314174738748</v>
+        <v>-0.01535203811540497</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.1387428590309051</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>-0.03814147018030518</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.03693769012268591</v>
+        <v>0.008321775312066643</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.06365119820119738</v>
+        <v>-0.009477225568605438</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.04453102051070289</v>
+        <v>0.1655842561110719</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.1791373853590795</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.1435506241331485</v>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.6829569491730293</v>
+        <v>-0.02357836338418862</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.06707443528185421</v>
+        <v>-0.03752815326658485</v>
       </c>
       <c r="E141" t="n">
-        <v>0.1754386224390398</v>
+        <v>-0.1103021835586385</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.1334684804450326</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>-0.03883495145631059</v>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.4963016781159975</v>
+        <v>0.3814147018030513</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.4655943525456659</v>
+        <v>0.03324603638268307</v>
       </c>
       <c r="E142" t="n">
-        <v>0.152425251712594</v>
+        <v>0.07389362178210236</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.1295804408809529</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>-0.3522884882108183</v>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.1992612663429965</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.07485960498381837</v>
+        <v>-0.7550131952698483</v>
       </c>
       <c r="E143" t="n">
-        <v>0.06137239769361073</v>
+        <v>0.1232570006494464</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.1302862756047175</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.05062413314840502</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.0848550534861702</v>
+        <v>-0.3432732316227464</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.2610726506688206</v>
+        <v>-0.386635306915933</v>
       </c>
       <c r="E144" t="n">
-        <v>0.05044289132999578</v>
+        <v>-0.2290498982170243</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.1128138307047871</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>-0.8294036061026352</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0.017813815749713</v>
+        <v>0.1386962552011098</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1404468627376071</v>
+        <v>-0.2516065996494692</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.1549632673619308</v>
+        <v>0.0325596371832585</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.1221259116957887</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>-1</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.9453592941034267</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.03990683992512264</v>
+        <v>-0.7942629787062592</v>
       </c>
       <c r="E146" t="n">
-        <v>0.4496220131053075</v>
+        <v>-0.08764660295907394</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.2656831021871392</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>-0.1054091539528432</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.04172968834988621</v>
+        <v>-0.1927877947295421</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1615797918497216</v>
+        <v>-0.4504119744555691</v>
       </c>
       <c r="E147" t="n">
-        <v>0.02081281857355564</v>
+        <v>0.0265386147691737</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.07590314174738748</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0.05339805825242715</v>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0.7635427788633937</v>
+        <v>-0.03814147018030518</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.05854431243280407</v>
+        <v>-0.03693769012268591</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.1690147054566102</v>
+        <v>-0.06365119820119738</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.04453102051070289</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>-0.9271844660194174</v>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4571363242611656</v>
+        <v>0.1435506241331485</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.06291306696937775</v>
+        <v>-0.6829569491730293</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.2391152045807748</v>
+        <v>-0.06707443528185421</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.1754386224390398</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0</v>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.06249944600012087</v>
+        <v>-0.03883495145631059</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.1859858759066325</v>
+        <v>-0.4963016781159975</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.003288300839883345</v>
+        <v>-0.4655943525456659</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.152425251712594</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.3041719212715807</v>
+        <v>-0.3522884882108183</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.1965994116780274</v>
+        <v>-0.1992612663429965</v>
       </c>
       <c r="E151" t="n">
-        <v>0.1450432658820241</v>
+        <v>-0.07485960498381837</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.06137239769361073</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>-0.03814147018030518</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.1070390217369408</v>
+        <v>0.05062413314840514</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.03674556439069387</v>
+        <v>-0.0848550534861702</v>
       </c>
       <c r="E152" t="n">
-        <v>0.01156029361927497</v>
+        <v>-0.2610726506688206</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.05044289132999578</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0</v>
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.3236610326557747</v>
+        <v>-0.2011095700416089</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.1645975342869461</v>
+        <v>-1</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1504239381511786</v>
+        <v>0.04764016307106228</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.1940503277651103</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>-0.6165048543689321</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.1187121013719052</v>
+        <v>-0.8294036061026352</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.3411939988975787</v>
+        <v>0.017813815749713</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.1379380574341779</v>
+        <v>0.1404468627376071</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.1549632673619308</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.2739251040221915</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.0298051934970487</v>
+        <v>-0.07628294036061024</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1191611227235269</v>
+        <v>-0.8023469449424848</v>
       </c>
       <c r="E155" t="n">
-        <v>0.09323415756059192</v>
+        <v>-0.00340413571791114</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.1886100406443793</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.08633841886269066</v>
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.3106249118636556</v>
+        <v>-1</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.06188977967942461</v>
+        <v>-0.9453592941034267</v>
       </c>
       <c r="E156" t="n">
-        <v>0.1492401681384679</v>
+        <v>-0.03990683992512253</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.4496220131053075</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.1185852981969488</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>1.204897358931486</v>
+        <v>-0.1054091539528432</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.05402274699426414</v>
+        <v>-0.04172968834988621</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.05937832566083132</v>
+        <v>-0.1615797918497216</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.02081281857355564</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.01317614424410538</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0.08002921090271745</v>
+        <v>0.05339805825242715</v>
       </c>
       <c r="D158" t="n">
-        <v>0.01254140902566677</v>
+        <v>0.7635427788633937</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.110719363596762</v>
+        <v>-0.05854431243280407</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-0.1690147054566102</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>-0.002773925104022132</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9097258204234573</v>
+        <v>-0.9271844660194174</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1401166820387157</v>
+        <v>0.4571363242611656</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.2525970482430247</v>
+        <v>-0.06291306696937775</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-0.2391152045807748</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.1428571428571428</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0.834448719756643</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.3168070162034131</v>
+        <v>-0.06249944600012087</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.1469444301846654</v>
+        <v>-0.1859858759066325</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-0.003288300839883345</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>-0.1511789181692094</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0.169389794314954</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.2196056387222826</v>
+        <v>-0.3041719212715807</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1236724499014482</v>
+        <v>-0.1965994116780274</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.1450432658820241</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
         <v>-0.03814147018030518</v>
       </c>
-      <c r="C162" t="n">
-        <v>0.04614295211426489</v>
-      </c>
       <c r="D162" t="n">
-        <v>0.0006057860756522812</v>
+        <v>-0.1070390217369408</v>
       </c>
       <c r="E162" t="n">
-        <v>0.00664083873772654</v>
+        <v>-0.03674556439069387</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.01156029361927497</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-0.3236610326557747</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-0.1645975342869461</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.1504239381511786</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.6165048543689321</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-0.1187121013719052</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-0.3411939988975787</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.1379380574341779</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.2739251040221915</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.0298051934970487</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.1191611227235269</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.09323415756059192</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.08633841886269066</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-0.3106249118636556</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-0.06188977967942461</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.1492401681384679</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.1185852981969488</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.204897358931486</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-0.05402274699426414</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-0.05937832566083132</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.01317614424410538</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.08002921090271745</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.01254140902566677</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-0.110719363596762</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-0.002773925104022132</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.9097258204234573</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.1401166820387157</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-0.2525970482430247</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.834448719756643</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-0.3168070162034131</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-0.1469444301846654</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-0.1511789181692094</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.169389794314954</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-0.2196056387222826</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.1236724499014482</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.03814147018030518</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.04614295211426489</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.0006057860756522812</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.00664083873772654</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
           <t>ZINC4326719_2E07</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
         <v>-0.1490984743411928</v>
       </c>
-      <c r="C163" t="n">
+      <c r="D173" t="n">
         <v>0.291709542899736</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E173" t="n">
         <v>-0.2025522149394487</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F173" t="n">
         <v>-0.09381460759996071</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A155:A156"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>